--- a/storage/media.xlsx
+++ b/storage/media.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24320"/>
+    <workbookView windowWidth="28800" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>sub_name</t>
   </si>
@@ -31,190 +31,322 @@
     <t>md5</t>
   </si>
   <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：纪东平）</t>
-  </si>
-  <si>
-    <t>100008.ts</t>
-  </si>
-  <si>
-    <t>宣讲视频</t>
-  </si>
-  <si>
-    <t>462e3c02b1b8ae7d8084edd0d23895af</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：史朝阳）</t>
-  </si>
-  <si>
-    <t>100009.ts</t>
-  </si>
-  <si>
-    <t>9b24a7c70c001dcc7fd89308cd9de74a</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：徐钊）</t>
-  </si>
-  <si>
-    <t>100010.ts</t>
-  </si>
-  <si>
-    <t>9bb961e49aaf8ec9f7945ddffb1edefe</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：杨永冲）</t>
-  </si>
-  <si>
-    <t>100011.ts</t>
-  </si>
-  <si>
-    <t>30e4d2030104db1913b7dd0643bdf05b</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：殷崇勇）</t>
-  </si>
-  <si>
-    <t>100012.ts</t>
-  </si>
-  <si>
-    <t>e73ee70a1edbb631253e645d159406a5</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：张壮壮）</t>
-  </si>
-  <si>
-    <t>100013.ts</t>
-  </si>
-  <si>
-    <t>24fbab7e093f6f6cee0bd453cce998e2</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：赵铁凯）</t>
-  </si>
-  <si>
-    <t>100014.ts</t>
-  </si>
-  <si>
-    <t>c16b18814fd21fb78d785f3e064cf238</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：周成）</t>
-  </si>
-  <si>
-    <t>100015.ts</t>
-  </si>
-  <si>
-    <t>a8374a9c2d6df96776b51b84ab714785</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：蒋家柏）</t>
-  </si>
-  <si>
-    <t>100016.ts</t>
-  </si>
-  <si>
-    <t>30a84ce3cb674995aa6cab70f92abc9c</t>
-  </si>
-  <si>
-    <t>学习贯彻党的十九大 广西宣讲团宣讲视频（主讲人：陈建军）</t>
-  </si>
-  <si>
-    <t>100017.ts</t>
-  </si>
-  <si>
-    <t>4852e12c927be415b80562e4190485e2</t>
-  </si>
-  <si>
-    <t>时代之问</t>
-  </si>
-  <si>
-    <t>100018.ts</t>
-  </si>
-  <si>
-    <t>将革命进行到底</t>
-  </si>
-  <si>
-    <t>5bb2f80e5faec9ab3c8f9eac54ffe282</t>
-  </si>
-  <si>
-    <t>引领经济发展新常态</t>
-  </si>
-  <si>
-    <t>100019.ts</t>
-  </si>
-  <si>
-    <t>b04fb1f25000fa6bbeda34e5bb8b960e</t>
-  </si>
-  <si>
-    <t>人民民主新境界</t>
-  </si>
-  <si>
-    <t>100020.ts</t>
-  </si>
-  <si>
-    <t>72ead671031fc97d3766fe18e85ec0ed</t>
-  </si>
-  <si>
-    <t>强军之路（上）</t>
-  </si>
-  <si>
-    <t>100021.ts</t>
-  </si>
-  <si>
-    <t>97b57df799b118c2d4e68da417108013</t>
-  </si>
-  <si>
-    <t>强军之路（下）</t>
-  </si>
-  <si>
-    <t>100022.ts</t>
-  </si>
-  <si>
-    <t>8b811b1f15174b2f499eb0fec26e070b</t>
-  </si>
-  <si>
-    <t>人民的获得感</t>
-  </si>
-  <si>
-    <t>100023.ts</t>
-  </si>
-  <si>
-    <t>37f30184925b87cdce1a15715ac15f2b</t>
-  </si>
-  <si>
-    <t>延续中华文脉</t>
-  </si>
-  <si>
-    <t>100024.ts</t>
-  </si>
-  <si>
-    <t>a04056c8fbc249bafc24ab4b5b7ab461</t>
-  </si>
-  <si>
-    <t>守住绿水青山</t>
-  </si>
-  <si>
-    <t>100025.ts</t>
-  </si>
-  <si>
-    <t>21ae84cdc868f65a6ae8f257e657cd54</t>
-  </si>
-  <si>
-    <t>维护社会公平正义</t>
-  </si>
-  <si>
-    <t>100026.ts</t>
-  </si>
-  <si>
-    <t>1748ba599b8ac4205cf926295035a956</t>
-  </si>
-  <si>
-    <t>党的自我革新</t>
-  </si>
-  <si>
-    <t>100027.ts</t>
-  </si>
-  <si>
-    <t>78a7b4ec03f5d5de28a28626d2cdc2b2</t>
+    <t>协调发展</t>
+  </si>
+  <si>
+    <t>100028.ts</t>
+  </si>
+  <si>
+    <t>辉煌中国</t>
+  </si>
+  <si>
+    <t>e2e7c61f1e9f34cd8d14061bc8b2b7ce</t>
+  </si>
+  <si>
+    <t>绿色家园</t>
+  </si>
+  <si>
+    <t>100029.ts</t>
+  </si>
+  <si>
+    <t>69d462a2697f7bf60765dcd24d70858a</t>
+  </si>
+  <si>
+    <t>圆梦工程</t>
+  </si>
+  <si>
+    <t>100030.ts</t>
+  </si>
+  <si>
+    <t>fc32c713eb25aa3fb93d2fb51d6372aa</t>
+  </si>
+  <si>
+    <t>创新活力</t>
+  </si>
+  <si>
+    <t>100031.ts</t>
+  </si>
+  <si>
+    <t>85f373c9d0c90f7d27bef72351107ff4</t>
+  </si>
+  <si>
+    <t>共享小康</t>
+  </si>
+  <si>
+    <t>100032.ts</t>
+  </si>
+  <si>
+    <t>0fac3337935bc881eb9b9990048437fb</t>
+  </si>
+  <si>
+    <t>开放中国</t>
+  </si>
+  <si>
+    <t>100033.ts</t>
+  </si>
+  <si>
+    <t>d91d9cec7cb583bed62b176e7fc433c8</t>
+  </si>
+  <si>
+    <t>利剑高悬</t>
+  </si>
+  <si>
+    <t>100040.ts</t>
+  </si>
+  <si>
+    <t>巡视利剑</t>
+  </si>
+  <si>
+    <t>e7ad087a4879ffa0b4c5541d2c7ff533</t>
+  </si>
+  <si>
+    <t>政治巡视</t>
+  </si>
+  <si>
+    <t>100041.ts</t>
+  </si>
+  <si>
+    <t>4158baeb17cb941270a2d217552be0ea</t>
+  </si>
+  <si>
+    <t>震慑常在</t>
+  </si>
+  <si>
+    <t>100042.ts</t>
+  </si>
+  <si>
+    <t>b0387de99060be04e80d46ea81f0bcfb</t>
+  </si>
+  <si>
+    <t>巡视全覆盖</t>
+  </si>
+  <si>
+    <t>100043.ts</t>
+  </si>
+  <si>
+    <t>5531fe45150eb259ac24af0a40610ff3</t>
+  </si>
+  <si>
+    <t>逐梦</t>
+  </si>
+  <si>
+    <t>100044.ts</t>
+  </si>
+  <si>
+    <t>强军</t>
+  </si>
+  <si>
+    <t>7f1a84f680da207de40cf2e26c7c075c</t>
+  </si>
+  <si>
+    <t>铸魂</t>
+  </si>
+  <si>
+    <t>100045.ts</t>
+  </si>
+  <si>
+    <t>9be756d54df1009f36e36d2447dea442</t>
+  </si>
+  <si>
+    <t>制胜</t>
+  </si>
+  <si>
+    <t>100046.ts</t>
+  </si>
+  <si>
+    <t>07b441f08493065dacafb6aafd797ae1</t>
+  </si>
+  <si>
+    <t>铁律</t>
+  </si>
+  <si>
+    <t>100047.ts</t>
+  </si>
+  <si>
+    <t>31f4c2684193895e42f71da1f9fb5e9e</t>
+  </si>
+  <si>
+    <t>伟力</t>
+  </si>
+  <si>
+    <t>100048.ts</t>
+  </si>
+  <si>
+    <t>e671049c240f0a601063f027e252c439</t>
+  </si>
+  <si>
+    <t>重塑</t>
+  </si>
+  <si>
+    <t>100049.ts</t>
+  </si>
+  <si>
+    <t>4d2390be50cec2b0dfb3dbb241f6f1cc</t>
+  </si>
+  <si>
+    <t>浴火</t>
+  </si>
+  <si>
+    <t>100050.ts</t>
+  </si>
+  <si>
+    <t>33c376d6fbecb23100e9fbfd0319542a</t>
+  </si>
+  <si>
+    <t>跨越</t>
+  </si>
+  <si>
+    <t>100051.ts</t>
+  </si>
+  <si>
+    <t>8f7abc7e4dad5df0ac6010352459bfb7</t>
+  </si>
+  <si>
+    <t>新闻联播：习近平在视察南部战区陆军机关时强调 抓紧抓实年度各项工作 努力开创部队工作新局面</t>
+  </si>
+  <si>
+    <t>100058.ts</t>
+  </si>
+  <si>
+    <t>总书记在广西</t>
+  </si>
+  <si>
+    <t>63076e45a0274c1030069c7acb05c234</t>
+  </si>
+  <si>
+    <t>新闻联播： 习近平在广西考察工作时强调 扎实推动经济社会持续健康发展 以优异成绩迎接党的十九大胜利召开</t>
+  </si>
+  <si>
+    <t>100059.ts</t>
+  </si>
+  <si>
+    <t>474329ce9577750a3c92ebc3b4467cc5</t>
+  </si>
+  <si>
+    <t>新闻联播：谱写思路新篇章——习近平总书记考察广西引起热烈反响</t>
+  </si>
+  <si>
+    <t>100060.ts</t>
+  </si>
+  <si>
+    <t>bf60bc162d87d3f074c330e99dd04c2d</t>
+  </si>
+  <si>
+    <t>广西新闻：习近平总书记与广西基层代表座谈回访</t>
+  </si>
+  <si>
+    <t>100061.ts</t>
+  </si>
+  <si>
+    <t>bb99d816f1e0f4cd47943a61fe8682a5</t>
+  </si>
+  <si>
+    <t>广西新闻：习近平在广西考察工作时强调 扎实推动经济社会持续健康发展 以优异成绩迎接党的十九大胜利召开</t>
+  </si>
+  <si>
+    <t>100062.ts</t>
+  </si>
+  <si>
+    <t>78667c24ca19f075b4ae9a1f98470674</t>
+  </si>
+  <si>
+    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 各城区深入学习总书记视察广西重要讲话精神</t>
+  </si>
+  <si>
+    <t>100063.ts</t>
+  </si>
+  <si>
+    <t>28c79cd0e0b7679da7ccb1b7aaf4b2bd</t>
+  </si>
+  <si>
+    <t>广西新闻：牢记总书记嘱托 写好新世纪海上丝路新篇章</t>
+  </si>
+  <si>
+    <t>100064.ts</t>
+  </si>
+  <si>
+    <t>5332b85b36ef3756a4568960766da446</t>
+  </si>
+  <si>
+    <t>广西新闻：确保总书记重要讲话精神 在广西落地生根 开花结果</t>
+  </si>
+  <si>
+    <t>100065.ts</t>
+  </si>
+  <si>
+    <t>9328ef0240f8455d8cdc986aab3b4ed2</t>
+  </si>
+  <si>
+    <t>广西新闻： 牢记总书记嘱托 留存海上古丝路文化底蕴 打造凸显地方特色博物馆</t>
+  </si>
+  <si>
+    <t>100066.ts</t>
+  </si>
+  <si>
+    <t>6061276e11e078583c8687eca9dc12cb</t>
+  </si>
+  <si>
+    <t>广西新闻： 让老区人民尽快过上幸福日子——五论深入学习贯彻习近平总书记视察广西</t>
+  </si>
+  <si>
+    <t>100067.ts</t>
+  </si>
+  <si>
+    <t>192bf2fe6d654008bf18177503b1e86a</t>
+  </si>
+  <si>
+    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 把富民兴桂各项工作做得更好</t>
+  </si>
+  <si>
+    <t>100068.ts</t>
+  </si>
+  <si>
+    <t>106af37ce4a3571a3d21dd0feb2bdffb</t>
+  </si>
+  <si>
+    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 发挥“南宁渠道”影响力 构建开放合作新格局</t>
+  </si>
+  <si>
+    <t>100069.ts</t>
+  </si>
+  <si>
+    <t>a8e9d64d9655d50eb8194c41b690ed4f</t>
+  </si>
+  <si>
+    <t>桂林：传达学习习近平总书记视察广西重要讲话精神 学习习近平总书记关于“一带一路”建设的相关论述</t>
+  </si>
+  <si>
+    <t>100070.ts</t>
+  </si>
+  <si>
+    <t>a3348c11a4991645f88e1375aef493a3</t>
+  </si>
+  <si>
+    <t>广西新闻：情暖壮乡 向海腾飞——回访习近平总书记视察点</t>
+  </si>
+  <si>
+    <t>100071.ts</t>
+  </si>
+  <si>
+    <t>643d404be5f09e521bcd591edb205bd0</t>
+  </si>
+  <si>
+    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 牢记总书记嘱托 建设美丽新南宁</t>
+  </si>
+  <si>
+    <t>100072.ts</t>
+  </si>
+  <si>
+    <t>ada7de7493558b53a92cbd7b0b215c0e</t>
+  </si>
+  <si>
+    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 以总书记重要讲话精神为动力 保障自治区60周年大庆重点项目建设进度</t>
+  </si>
+  <si>
+    <t>100073.ts</t>
+  </si>
+  <si>
+    <t>f81fea028009258031fb632f6c94c8a2</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1719" workbookViewId="0">
-      <selection activeCell="A1758" sqref="$A22:$XFD1758"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="4"/>
@@ -1336,188 +1468,375 @@
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D2:D21"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="C20:C35"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/storage/media.xlsx
+++ b/storage/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>sub_name</t>
   </si>
@@ -31,322 +31,583 @@
     <t>md5</t>
   </si>
   <si>
-    <t>协调发展</t>
-  </si>
-  <si>
-    <t>100028.ts</t>
-  </si>
-  <si>
-    <t>辉煌中国</t>
-  </si>
-  <si>
-    <t>e2e7c61f1e9f34cd8d14061bc8b2b7ce</t>
-  </si>
-  <si>
-    <t>绿色家园</t>
-  </si>
-  <si>
-    <t>100029.ts</t>
-  </si>
-  <si>
-    <t>69d462a2697f7bf60765dcd24d70858a</t>
-  </si>
-  <si>
-    <t>圆梦工程</t>
-  </si>
-  <si>
-    <t>100030.ts</t>
-  </si>
-  <si>
-    <t>fc32c713eb25aa3fb93d2fb51d6372aa</t>
-  </si>
-  <si>
-    <t>创新活力</t>
-  </si>
-  <si>
-    <t>100031.ts</t>
-  </si>
-  <si>
-    <t>85f373c9d0c90f7d27bef72351107ff4</t>
-  </si>
-  <si>
-    <t>共享小康</t>
-  </si>
-  <si>
-    <t>100032.ts</t>
-  </si>
-  <si>
-    <t>0fac3337935bc881eb9b9990048437fb</t>
-  </si>
-  <si>
-    <t>开放中国</t>
-  </si>
-  <si>
-    <t>100033.ts</t>
-  </si>
-  <si>
-    <t>d91d9cec7cb583bed62b176e7fc433c8</t>
-  </si>
-  <si>
-    <t>利剑高悬</t>
-  </si>
-  <si>
-    <t>100040.ts</t>
-  </si>
-  <si>
-    <t>巡视利剑</t>
-  </si>
-  <si>
-    <t>e7ad087a4879ffa0b4c5541d2c7ff533</t>
-  </si>
-  <si>
-    <t>政治巡视</t>
-  </si>
-  <si>
-    <t>100041.ts</t>
-  </si>
-  <si>
-    <t>4158baeb17cb941270a2d217552be0ea</t>
-  </si>
-  <si>
-    <t>震慑常在</t>
-  </si>
-  <si>
-    <t>100042.ts</t>
-  </si>
-  <si>
-    <t>b0387de99060be04e80d46ea81f0bcfb</t>
-  </si>
-  <si>
-    <t>巡视全覆盖</t>
-  </si>
-  <si>
-    <t>100043.ts</t>
-  </si>
-  <si>
-    <t>5531fe45150eb259ac24af0a40610ff3</t>
-  </si>
-  <si>
-    <t>逐梦</t>
-  </si>
-  <si>
-    <t>100044.ts</t>
-  </si>
-  <si>
-    <t>强军</t>
-  </si>
-  <si>
-    <t>7f1a84f680da207de40cf2e26c7c075c</t>
-  </si>
-  <si>
-    <t>铸魂</t>
-  </si>
-  <si>
-    <t>100045.ts</t>
-  </si>
-  <si>
-    <t>9be756d54df1009f36e36d2447dea442</t>
-  </si>
-  <si>
-    <t>制胜</t>
-  </si>
-  <si>
-    <t>100046.ts</t>
-  </si>
-  <si>
-    <t>07b441f08493065dacafb6aafd797ae1</t>
-  </si>
-  <si>
-    <t>铁律</t>
-  </si>
-  <si>
-    <t>100047.ts</t>
-  </si>
-  <si>
-    <t>31f4c2684193895e42f71da1f9fb5e9e</t>
-  </si>
-  <si>
-    <t>伟力</t>
-  </si>
-  <si>
-    <t>100048.ts</t>
-  </si>
-  <si>
-    <t>e671049c240f0a601063f027e252c439</t>
-  </si>
-  <si>
-    <t>重塑</t>
-  </si>
-  <si>
-    <t>100049.ts</t>
-  </si>
-  <si>
-    <t>4d2390be50cec2b0dfb3dbb241f6f1cc</t>
-  </si>
-  <si>
-    <t>浴火</t>
-  </si>
-  <si>
-    <t>100050.ts</t>
-  </si>
-  <si>
-    <t>33c376d6fbecb23100e9fbfd0319542a</t>
-  </si>
-  <si>
-    <t>跨越</t>
-  </si>
-  <si>
-    <t>100051.ts</t>
-  </si>
-  <si>
-    <t>8f7abc7e4dad5df0ac6010352459bfb7</t>
-  </si>
-  <si>
-    <t>新闻联播：习近平在视察南部战区陆军机关时强调 抓紧抓实年度各项工作 努力开创部队工作新局面</t>
-  </si>
-  <si>
-    <t>100058.ts</t>
-  </si>
-  <si>
-    <t>总书记在广西</t>
-  </si>
-  <si>
-    <t>63076e45a0274c1030069c7acb05c234</t>
-  </si>
-  <si>
-    <t>新闻联播： 习近平在广西考察工作时强调 扎实推动经济社会持续健康发展 以优异成绩迎接党的十九大胜利召开</t>
-  </si>
-  <si>
-    <t>100059.ts</t>
-  </si>
-  <si>
-    <t>474329ce9577750a3c92ebc3b4467cc5</t>
-  </si>
-  <si>
-    <t>新闻联播：谱写思路新篇章——习近平总书记考察广西引起热烈反响</t>
-  </si>
-  <si>
-    <t>100060.ts</t>
-  </si>
-  <si>
-    <t>bf60bc162d87d3f074c330e99dd04c2d</t>
-  </si>
-  <si>
-    <t>广西新闻：习近平总书记与广西基层代表座谈回访</t>
-  </si>
-  <si>
-    <t>100061.ts</t>
-  </si>
-  <si>
-    <t>bb99d816f1e0f4cd47943a61fe8682a5</t>
-  </si>
-  <si>
-    <t>广西新闻：习近平在广西考察工作时强调 扎实推动经济社会持续健康发展 以优异成绩迎接党的十九大胜利召开</t>
-  </si>
-  <si>
-    <t>100062.ts</t>
-  </si>
-  <si>
-    <t>78667c24ca19f075b4ae9a1f98470674</t>
-  </si>
-  <si>
-    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 各城区深入学习总书记视察广西重要讲话精神</t>
-  </si>
-  <si>
-    <t>100063.ts</t>
-  </si>
-  <si>
-    <t>28c79cd0e0b7679da7ccb1b7aaf4b2bd</t>
-  </si>
-  <si>
-    <t>广西新闻：牢记总书记嘱托 写好新世纪海上丝路新篇章</t>
-  </si>
-  <si>
-    <t>100064.ts</t>
-  </si>
-  <si>
-    <t>5332b85b36ef3756a4568960766da446</t>
-  </si>
-  <si>
-    <t>广西新闻：确保总书记重要讲话精神 在广西落地生根 开花结果</t>
-  </si>
-  <si>
-    <t>100065.ts</t>
-  </si>
-  <si>
-    <t>9328ef0240f8455d8cdc986aab3b4ed2</t>
-  </si>
-  <si>
-    <t>广西新闻： 牢记总书记嘱托 留存海上古丝路文化底蕴 打造凸显地方特色博物馆</t>
-  </si>
-  <si>
-    <t>100066.ts</t>
-  </si>
-  <si>
-    <t>6061276e11e078583c8687eca9dc12cb</t>
-  </si>
-  <si>
-    <t>广西新闻： 让老区人民尽快过上幸福日子——五论深入学习贯彻习近平总书记视察广西</t>
-  </si>
-  <si>
-    <t>100067.ts</t>
-  </si>
-  <si>
-    <t>192bf2fe6d654008bf18177503b1e86a</t>
-  </si>
-  <si>
-    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 把富民兴桂各项工作做得更好</t>
-  </si>
-  <si>
-    <t>100068.ts</t>
-  </si>
-  <si>
-    <t>106af37ce4a3571a3d21dd0feb2bdffb</t>
-  </si>
-  <si>
-    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 发挥“南宁渠道”影响力 构建开放合作新格局</t>
-  </si>
-  <si>
-    <t>100069.ts</t>
-  </si>
-  <si>
-    <t>a8e9d64d9655d50eb8194c41b690ed4f</t>
-  </si>
-  <si>
-    <t>桂林：传达学习习近平总书记视察广西重要讲话精神 学习习近平总书记关于“一带一路”建设的相关论述</t>
-  </si>
-  <si>
-    <t>100070.ts</t>
-  </si>
-  <si>
-    <t>a3348c11a4991645f88e1375aef493a3</t>
-  </si>
-  <si>
-    <t>广西新闻：情暖壮乡 向海腾飞——回访习近平总书记视察点</t>
-  </si>
-  <si>
-    <t>100071.ts</t>
-  </si>
-  <si>
-    <t>643d404be5f09e521bcd591edb205bd0</t>
-  </si>
-  <si>
-    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 牢记总书记嘱托 建设美丽新南宁</t>
-  </si>
-  <si>
-    <t>100072.ts</t>
-  </si>
-  <si>
-    <t>ada7de7493558b53a92cbd7b0b215c0e</t>
-  </si>
-  <si>
-    <t>南宁：认真学习贯彻总书记视察广西重要讲话精神 以优异成绩迎接党的十九大胜利召开 以总书记重要讲话精神为动力 保障自治区60周年大庆重点项目建设进度</t>
-  </si>
-  <si>
-    <t>100073.ts</t>
-  </si>
-  <si>
-    <t>f81fea028009258031fb632f6c94c8a2</t>
+    <t>方舱医院  党旗飘扬</t>
+  </si>
+  <si>
+    <t>100074.ts</t>
+  </si>
+  <si>
+    <t>同心抗疫</t>
+  </si>
+  <si>
+    <t>71ceaccf274a8040d7663c5676012d5b</t>
+  </si>
+  <si>
+    <t>战地花开  巾帼担当</t>
+  </si>
+  <si>
+    <t>100075.ts</t>
+  </si>
+  <si>
+    <t>61642fe5f4ad1590b805e9e78f10c4cc</t>
+  </si>
+  <si>
+    <t>重磅微视频——“手”卫人民</t>
+  </si>
+  <si>
+    <t>100076.ts</t>
+  </si>
+  <si>
+    <t>bc17740d87093321c44541f513b7664b</t>
+  </si>
+  <si>
+    <t>我希望</t>
+  </si>
+  <si>
+    <t>100077.ts</t>
+  </si>
+  <si>
+    <t>e52a014321bf98542a473b3641240ee8</t>
+  </si>
+  <si>
+    <t>两地情书</t>
+  </si>
+  <si>
+    <t>100078.ts</t>
+  </si>
+  <si>
+    <t>7e27acedb5103a83c8edb02baa00737d</t>
+  </si>
+  <si>
+    <t>大爱传承  携手前行</t>
+  </si>
+  <si>
+    <t>100079.ts</t>
+  </si>
+  <si>
+    <t>3ec5b35b380dac6966032fcc3e2de881</t>
+  </si>
+  <si>
+    <t>平凡如你  温暖如光</t>
+  </si>
+  <si>
+    <t>100080.ts</t>
+  </si>
+  <si>
+    <t>7b65d221fd8a18a1dd29aaf2a1be1306</t>
+  </si>
+  <si>
+    <t>战”疫“24小时</t>
+  </si>
+  <si>
+    <t>100081.ts</t>
+  </si>
+  <si>
+    <t>08fe08c99623535a2b107a01471a6214</t>
+  </si>
+  <si>
+    <t>辛识平：读懂“战疫”家书里的真情与大爱</t>
+  </si>
+  <si>
+    <t>100082.ts</t>
+  </si>
+  <si>
+    <t>1d275f8023cdb5e32eef1ec4910031e8</t>
+  </si>
+  <si>
+    <t>金句来习：“我是党员，我先上”</t>
+  </si>
+  <si>
+    <t>100083.ts</t>
+  </si>
+  <si>
+    <t>874faf1ce30d3e7ab48150ea624b34be</t>
+  </si>
+  <si>
+    <t>新华社音乐MV《武汉不孤单》</t>
+  </si>
+  <si>
+    <t>100084.ts</t>
+  </si>
+  <si>
+    <t>166977f08dde1d6ef1ad1e37ef6f706b</t>
+  </si>
+  <si>
+    <t>社区抗“疫“日记</t>
+  </si>
+  <si>
+    <t>100085.ts</t>
+  </si>
+  <si>
+    <t>0855a98da70c5e4a61ed577ae059dda2</t>
+  </si>
+  <si>
+    <t>坚守：一群人，一起拼，一同风雨，万众一心！</t>
+  </si>
+  <si>
+    <t>100086.ts</t>
+  </si>
+  <si>
+    <t>30eaee45efa1263e5603a132648f720f</t>
+  </si>
+  <si>
+    <t>别怕，我们在，加油！</t>
+  </si>
+  <si>
+    <t>100087.ts</t>
+  </si>
+  <si>
+    <t>76311689ff35d1fed30f35ac829205b1</t>
+  </si>
+  <si>
+    <t>警徽闪耀 党旗高扬</t>
+  </si>
+  <si>
+    <t>100088.ts</t>
+  </si>
+  <si>
+    <t>f6fac69cc4a51dd0c6c4a990d2e25de1</t>
+  </si>
+  <si>
+    <t>微视频：英雄同心</t>
+  </si>
+  <si>
+    <t>100089.ts</t>
+  </si>
+  <si>
+    <t>f7afdd286fc6f469626d3a90ea03c180</t>
+  </si>
+  <si>
+    <t>习近平讲述的故事——战“疫”必胜</t>
+  </si>
+  <si>
+    <t>100090.ts</t>
+  </si>
+  <si>
+    <t>52e44ba77373c56ee5d1e845ccb716dd</t>
+  </si>
+  <si>
+    <t>重磅微视频：天使的逆行</t>
+  </si>
+  <si>
+    <t>100091.ts</t>
+  </si>
+  <si>
+    <t>e317beadaee768c78b0bad5944974f49</t>
+  </si>
+  <si>
+    <t>咬定青山不放松</t>
+  </si>
+  <si>
+    <t>100092.ts</t>
+  </si>
+  <si>
+    <t>平语近人</t>
+  </si>
+  <si>
+    <t>两学一做</t>
+  </si>
+  <si>
+    <t>bcde95b0f7cf3b2adeea33d1fa2b7011</t>
+  </si>
+  <si>
+    <t>天下为公行大道</t>
+  </si>
+  <si>
+    <t>100093.ts</t>
+  </si>
+  <si>
+    <t>a0e64caf756c45d540fcfb74d977de40</t>
+  </si>
+  <si>
+    <t>天下之治在人才</t>
+  </si>
+  <si>
+    <t>100094.ts</t>
+  </si>
+  <si>
+    <t>5804787c0a8c0702a370a3b18556b24c</t>
+  </si>
+  <si>
+    <t>一枝一叶总关情</t>
+  </si>
+  <si>
+    <t>100095.ts</t>
+  </si>
+  <si>
+    <t>6fc928fba0b47c1af83af32707dea602</t>
+  </si>
+  <si>
+    <t>治国有常民为本</t>
+  </si>
+  <si>
+    <t>100096.ts</t>
+  </si>
+  <si>
+    <t>746cce677c60dfb8760ab1476ee12c0d</t>
+  </si>
+  <si>
+    <t>国无德不兴</t>
+  </si>
+  <si>
+    <t>100097.ts</t>
+  </si>
+  <si>
+    <t>1dafe0afdb03e68eed1fcc02cb5b88ee</t>
+  </si>
+  <si>
+    <t>国之本在家</t>
+  </si>
+  <si>
+    <t>100098.ts</t>
+  </si>
+  <si>
+    <t>a6b5f4928a6e020bc777269c09067ebc</t>
+  </si>
+  <si>
+    <t>绝知此事要躬行</t>
+  </si>
+  <si>
+    <t>100099.ts</t>
+  </si>
+  <si>
+    <t>e0d39b63e856b0fa8faf2b0b7116a98b</t>
+  </si>
+  <si>
+    <t>报得三春晖</t>
+  </si>
+  <si>
+    <t>100100.ts</t>
+  </si>
+  <si>
+    <t>f30295d66456863631335ab65be42853</t>
+  </si>
+  <si>
+    <t>只留清气满乾坤</t>
+  </si>
+  <si>
+    <t>100101.ts</t>
+  </si>
+  <si>
+    <t>62e25f52900a4138d0c4e1d2429fe694</t>
+  </si>
+  <si>
+    <t>腹有诗书气自华</t>
+  </si>
+  <si>
+    <t>100102.ts</t>
+  </si>
+  <si>
+    <t>1c3bca5e9ac553b77246446328aa52cb</t>
+  </si>
+  <si>
+    <t>恶竹应须斩万竿</t>
+  </si>
+  <si>
+    <t>100103.ts</t>
+  </si>
+  <si>
+    <t>ee60a9a18ffba8d6e015b4def581d71a</t>
+  </si>
+  <si>
+    <t>全心全意为人民服务</t>
+  </si>
+  <si>
+    <t>100104.ts</t>
+  </si>
+  <si>
+    <t>做合格党员</t>
+  </si>
+  <si>
+    <t>771cc95f650b517df2581017d0719021</t>
+  </si>
+  <si>
+    <t>坚决维护党中央权威</t>
+  </si>
+  <si>
+    <t>100105.ts</t>
+  </si>
+  <si>
+    <t>db8d5b313ecdcd61a6ddccc40893282a</t>
+  </si>
+  <si>
+    <t>补好理想之“钙”</t>
+  </si>
+  <si>
+    <t>100106.ts</t>
+  </si>
+  <si>
+    <t>680e20ba8ee7a109404889681467eaa4</t>
+  </si>
+  <si>
+    <t>个人服从组织</t>
+  </si>
+  <si>
+    <t>100107.ts</t>
+  </si>
+  <si>
+    <t>f059e6386fd1caec8c21b79525ddccaa</t>
+  </si>
+  <si>
+    <t>党员要学习理论</t>
+  </si>
+  <si>
+    <t>100108.ts</t>
+  </si>
+  <si>
+    <t>a84e014a1392f791a7356b012a34bc25</t>
+  </si>
+  <si>
+    <t>自觉参加组织生活</t>
+  </si>
+  <si>
+    <t>100109.ts</t>
+  </si>
+  <si>
+    <t>9387a635a5f5ecaa95dc83beffb4faed</t>
+  </si>
+  <si>
+    <t>党内不允许有特殊党员</t>
+  </si>
+  <si>
+    <t>100110.ts</t>
+  </si>
+  <si>
+    <t>a3c0e645d2e3125bba388d439446fcb2</t>
+  </si>
+  <si>
+    <t>开展批评与自我批评</t>
+  </si>
+  <si>
+    <t>100111.ts</t>
+  </si>
+  <si>
+    <t>d7deb48d7b0c23348c701e56ccfbe42b</t>
+  </si>
+  <si>
+    <t>把纪律和规矩挺在前面</t>
+  </si>
+  <si>
+    <t>100112.ts</t>
+  </si>
+  <si>
+    <t>2e9d7bd7e3bf8092b990f976176f957e</t>
+  </si>
+  <si>
+    <t>100113.ts</t>
+  </si>
+  <si>
+    <t>6dd3da3b44f362ea36f0b35f8bb43372</t>
+  </si>
+  <si>
+    <t>俞复玲365社区服务工作法</t>
+  </si>
+  <si>
+    <t>100114.ts</t>
+  </si>
+  <si>
+    <t>基层党组织工作法</t>
+  </si>
+  <si>
+    <t>996de5bcf03e3063eb0ea4364012fc9c</t>
+  </si>
+  <si>
+    <t>文建明工作法</t>
+  </si>
+  <si>
+    <t>100115.ts</t>
+  </si>
+  <si>
+    <t>c5e862ffa5755164bed26bada460d74d</t>
+  </si>
+  <si>
+    <t>四议两公开工作法</t>
+  </si>
+  <si>
+    <t>100116.ts</t>
+  </si>
+  <si>
+    <t>257aee2b2077005e9fdceb7d2efe695e</t>
+  </si>
+  <si>
+    <t>百步亭工作法</t>
+  </si>
+  <si>
+    <t>100117.ts</t>
+  </si>
+  <si>
+    <t>77d4a840ec88424988be3810684b8512</t>
+  </si>
+  <si>
+    <t>陈惠芬融合工作法</t>
+  </si>
+  <si>
+    <t>100118.ts</t>
+  </si>
+  <si>
+    <t>6d6a416076e18679f3ef59250c0c44ff</t>
+  </si>
+  <si>
+    <t>蓉中工作法</t>
+  </si>
+  <si>
+    <t>100119.ts</t>
+  </si>
+  <si>
+    <t>0e0988d37dd64e05fae906bf87f00145</t>
+  </si>
+  <si>
+    <t>白领驿家工作法</t>
+  </si>
+  <si>
+    <t>100120.ts</t>
+  </si>
+  <si>
+    <t>a2df106fbe3a663e929bb79b76c8d2f9</t>
+  </si>
+  <si>
+    <t>红豆工作法</t>
+  </si>
+  <si>
+    <t>100121.ts</t>
+  </si>
+  <si>
+    <t>8aac45d27d66c1244d56f160eb1ece57</t>
+  </si>
+  <si>
+    <t>党员远程教育——党建园地　高校党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100122.ts</t>
+  </si>
+  <si>
+    <t>党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>c711da9ac275f800cbdc31c885724fe2</t>
+  </si>
+  <si>
+    <t>党建园地　农村党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100123.ts</t>
+  </si>
+  <si>
+    <t>9393a61f9ba43d5e63ba49db08e7902a</t>
+  </si>
+  <si>
+    <t>党建园地　社区党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100124.ts</t>
+  </si>
+  <si>
+    <t>a316d0a2b48359bda9589b60c35e31af</t>
+  </si>
+  <si>
+    <t>国企党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100125.ts</t>
+  </si>
+  <si>
+    <t>391332ad848cfa7b263d0c698f50eee9</t>
+  </si>
+  <si>
+    <t>民企党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100126.ts</t>
+  </si>
+  <si>
+    <t>9134c4fd28bf6e2d8bbafdc5d88590a1</t>
+  </si>
+  <si>
+    <t>外企党组织书记工作案例</t>
+  </si>
+  <si>
+    <t>100127.ts</t>
+  </si>
+  <si>
+    <t>0c4d63901cde166df6b713ccb98dc2af</t>
+  </si>
+  <si>
+    <t>中国共产党的性质</t>
+  </si>
+  <si>
+    <t>100128.ts</t>
+  </si>
+  <si>
+    <t>新时期入党培训专题讲座</t>
+  </si>
+  <si>
+    <t>455b83ed958cc426b79e59f150084ae4</t>
+  </si>
+  <si>
+    <t>党员的条件、义务和权利</t>
+  </si>
+  <si>
+    <t>100129.ts</t>
+  </si>
+  <si>
+    <t>3477c78c25b3b3b71f40835a7334850c</t>
+  </si>
+  <si>
+    <t>中国共产党的组织原则</t>
+  </si>
+  <si>
+    <t>100130.ts</t>
+  </si>
+  <si>
+    <t>75b06957e27b12e3bfed281e796eb12f</t>
+  </si>
+  <si>
+    <t>中国共产党的指导思想</t>
+  </si>
+  <si>
+    <t>100131.ts</t>
+  </si>
+  <si>
+    <t>542d1e17b9700665ab1e91abdfa1b6d7</t>
+  </si>
+  <si>
+    <t>中国共产党的基本纲领</t>
+  </si>
+  <si>
+    <t>100132.ts</t>
+  </si>
+  <si>
+    <t>42c9a97efae89ecfb0aec388e270a43c</t>
+  </si>
+  <si>
+    <t>党支部的地位作用和基本任务</t>
+  </si>
+  <si>
+    <t>100133.ts</t>
+  </si>
+  <si>
+    <t>新编党支部建设学习辅导讲座</t>
+  </si>
+  <si>
+    <t>9b1108674b21f8094efde4aa4d12187b</t>
+  </si>
+  <si>
+    <t>创新基层党建工作，全面提高党的建设科学化水平</t>
+  </si>
+  <si>
+    <t>100134.ts</t>
+  </si>
+  <si>
+    <t>4e23b5219f6981ce4f38c900f76327d5</t>
+  </si>
+  <si>
+    <t>党支部书记的使命，职责及如何做好新形势下党支部书记工作</t>
+  </si>
+  <si>
+    <t>100135.ts</t>
+  </si>
+  <si>
+    <t>0eb1c8d7f0b6bd6ef9b54e9199eb5365</t>
   </si>
 </sst>
 </file>
@@ -990,8 +1251,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1349,10 +1613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="4"/>
@@ -1382,421 +1646,423 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" ht="12.75" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="3"/>
@@ -1806,10 +2072,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="3"/>
@@ -1819,10 +2085,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="3"/>
@@ -1831,12 +2097,388 @@
         <v>110</v>
       </c>
     </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C20:C35"/>
+  <mergeCells count="8">
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D2:D19"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/storage/media.xlsx
+++ b/storage/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356">
   <si>
     <t>sub_name</t>
   </si>
@@ -31,583 +31,1057 @@
     <t>md5</t>
   </si>
   <si>
-    <t>方舱医院  党旗飘扬</t>
-  </si>
-  <si>
-    <t>100074.ts</t>
-  </si>
-  <si>
-    <t>同心抗疫</t>
-  </si>
-  <si>
-    <t>71ceaccf274a8040d7663c5676012d5b</t>
-  </si>
-  <si>
-    <t>战地花开  巾帼担当</t>
-  </si>
-  <si>
-    <t>100075.ts</t>
-  </si>
-  <si>
-    <t>61642fe5f4ad1590b805e9e78f10c4cc</t>
-  </si>
-  <si>
-    <t>重磅微视频——“手”卫人民</t>
-  </si>
-  <si>
-    <t>100076.ts</t>
-  </si>
-  <si>
-    <t>bc17740d87093321c44541f513b7664b</t>
-  </si>
-  <si>
-    <t>我希望</t>
-  </si>
-  <si>
-    <t>100077.ts</t>
-  </si>
-  <si>
-    <t>e52a014321bf98542a473b3641240ee8</t>
-  </si>
-  <si>
-    <t>两地情书</t>
-  </si>
-  <si>
-    <t>100078.ts</t>
-  </si>
-  <si>
-    <t>7e27acedb5103a83c8edb02baa00737d</t>
-  </si>
-  <si>
-    <t>大爱传承  携手前行</t>
-  </si>
-  <si>
-    <t>100079.ts</t>
-  </si>
-  <si>
-    <t>3ec5b35b380dac6966032fcc3e2de881</t>
-  </si>
-  <si>
-    <t>平凡如你  温暖如光</t>
-  </si>
-  <si>
-    <t>100080.ts</t>
-  </si>
-  <si>
-    <t>7b65d221fd8a18a1dd29aaf2a1be1306</t>
-  </si>
-  <si>
-    <t>战”疫“24小时</t>
-  </si>
-  <si>
-    <t>100081.ts</t>
-  </si>
-  <si>
-    <t>08fe08c99623535a2b107a01471a6214</t>
-  </si>
-  <si>
-    <t>辛识平：读懂“战疫”家书里的真情与大爱</t>
-  </si>
-  <si>
-    <t>100082.ts</t>
-  </si>
-  <si>
-    <t>1d275f8023cdb5e32eef1ec4910031e8</t>
-  </si>
-  <si>
-    <t>金句来习：“我是党员，我先上”</t>
-  </si>
-  <si>
-    <t>100083.ts</t>
-  </si>
-  <si>
-    <t>874faf1ce30d3e7ab48150ea624b34be</t>
-  </si>
-  <si>
-    <t>新华社音乐MV《武汉不孤单》</t>
-  </si>
-  <si>
-    <t>100084.ts</t>
-  </si>
-  <si>
-    <t>166977f08dde1d6ef1ad1e37ef6f706b</t>
-  </si>
-  <si>
-    <t>社区抗“疫“日记</t>
-  </si>
-  <si>
-    <t>100085.ts</t>
-  </si>
-  <si>
-    <t>0855a98da70c5e4a61ed577ae059dda2</t>
-  </si>
-  <si>
-    <t>坚守：一群人，一起拼，一同风雨，万众一心！</t>
-  </si>
-  <si>
-    <t>100086.ts</t>
-  </si>
-  <si>
-    <t>30eaee45efa1263e5603a132648f720f</t>
-  </si>
-  <si>
-    <t>别怕，我们在，加油！</t>
-  </si>
-  <si>
-    <t>100087.ts</t>
-  </si>
-  <si>
-    <t>76311689ff35d1fed30f35ac829205b1</t>
-  </si>
-  <si>
-    <t>警徽闪耀 党旗高扬</t>
-  </si>
-  <si>
-    <t>100088.ts</t>
-  </si>
-  <si>
-    <t>f6fac69cc4a51dd0c6c4a990d2e25de1</t>
-  </si>
-  <si>
-    <t>微视频：英雄同心</t>
-  </si>
-  <si>
-    <t>100089.ts</t>
-  </si>
-  <si>
-    <t>f7afdd286fc6f469626d3a90ea03c180</t>
-  </si>
-  <si>
-    <t>习近平讲述的故事——战“疫”必胜</t>
-  </si>
-  <si>
-    <t>100090.ts</t>
-  </si>
-  <si>
-    <t>52e44ba77373c56ee5d1e845ccb716dd</t>
-  </si>
-  <si>
-    <t>重磅微视频：天使的逆行</t>
-  </si>
-  <si>
-    <t>100091.ts</t>
-  </si>
-  <si>
-    <t>e317beadaee768c78b0bad5944974f49</t>
-  </si>
-  <si>
-    <t>咬定青山不放松</t>
-  </si>
-  <si>
-    <t>100092.ts</t>
-  </si>
-  <si>
-    <t>平语近人</t>
-  </si>
-  <si>
-    <t>两学一做</t>
-  </si>
-  <si>
-    <t>bcde95b0f7cf3b2adeea33d1fa2b7011</t>
-  </si>
-  <si>
-    <t>天下为公行大道</t>
-  </si>
-  <si>
-    <t>100093.ts</t>
-  </si>
-  <si>
-    <t>a0e64caf756c45d540fcfb74d977de40</t>
-  </si>
-  <si>
-    <t>天下之治在人才</t>
-  </si>
-  <si>
-    <t>100094.ts</t>
-  </si>
-  <si>
-    <t>5804787c0a8c0702a370a3b18556b24c</t>
-  </si>
-  <si>
-    <t>一枝一叶总关情</t>
-  </si>
-  <si>
-    <t>100095.ts</t>
-  </si>
-  <si>
-    <t>6fc928fba0b47c1af83af32707dea602</t>
-  </si>
-  <si>
-    <t>治国有常民为本</t>
-  </si>
-  <si>
-    <t>100096.ts</t>
-  </si>
-  <si>
-    <t>746cce677c60dfb8760ab1476ee12c0d</t>
-  </si>
-  <si>
-    <t>国无德不兴</t>
-  </si>
-  <si>
-    <t>100097.ts</t>
-  </si>
-  <si>
-    <t>1dafe0afdb03e68eed1fcc02cb5b88ee</t>
-  </si>
-  <si>
-    <t>国之本在家</t>
-  </si>
-  <si>
-    <t>100098.ts</t>
-  </si>
-  <si>
-    <t>a6b5f4928a6e020bc777269c09067ebc</t>
-  </si>
-  <si>
-    <t>绝知此事要躬行</t>
-  </si>
-  <si>
-    <t>100099.ts</t>
-  </si>
-  <si>
-    <t>e0d39b63e856b0fa8faf2b0b7116a98b</t>
-  </si>
-  <si>
-    <t>报得三春晖</t>
-  </si>
-  <si>
-    <t>100100.ts</t>
-  </si>
-  <si>
-    <t>f30295d66456863631335ab65be42853</t>
-  </si>
-  <si>
-    <t>只留清气满乾坤</t>
-  </si>
-  <si>
-    <t>100101.ts</t>
-  </si>
-  <si>
-    <t>62e25f52900a4138d0c4e1d2429fe694</t>
-  </si>
-  <si>
-    <t>腹有诗书气自华</t>
-  </si>
-  <si>
-    <t>100102.ts</t>
-  </si>
-  <si>
-    <t>1c3bca5e9ac553b77246446328aa52cb</t>
-  </si>
-  <si>
-    <t>恶竹应须斩万竿</t>
-  </si>
-  <si>
-    <t>100103.ts</t>
-  </si>
-  <si>
-    <t>ee60a9a18ffba8d6e015b4def581d71a</t>
-  </si>
-  <si>
-    <t>全心全意为人民服务</t>
-  </si>
-  <si>
-    <t>100104.ts</t>
-  </si>
-  <si>
-    <t>做合格党员</t>
-  </si>
-  <si>
-    <t>771cc95f650b517df2581017d0719021</t>
-  </si>
-  <si>
-    <t>坚决维护党中央权威</t>
-  </si>
-  <si>
-    <t>100105.ts</t>
-  </si>
-  <si>
-    <t>db8d5b313ecdcd61a6ddccc40893282a</t>
-  </si>
-  <si>
-    <t>补好理想之“钙”</t>
-  </si>
-  <si>
-    <t>100106.ts</t>
-  </si>
-  <si>
-    <t>680e20ba8ee7a109404889681467eaa4</t>
-  </si>
-  <si>
-    <t>个人服从组织</t>
-  </si>
-  <si>
-    <t>100107.ts</t>
-  </si>
-  <si>
-    <t>f059e6386fd1caec8c21b79525ddccaa</t>
-  </si>
-  <si>
-    <t>党员要学习理论</t>
-  </si>
-  <si>
-    <t>100108.ts</t>
-  </si>
-  <si>
-    <t>a84e014a1392f791a7356b012a34bc25</t>
-  </si>
-  <si>
-    <t>自觉参加组织生活</t>
-  </si>
-  <si>
-    <t>100109.ts</t>
-  </si>
-  <si>
-    <t>9387a635a5f5ecaa95dc83beffb4faed</t>
-  </si>
-  <si>
-    <t>党内不允许有特殊党员</t>
-  </si>
-  <si>
-    <t>100110.ts</t>
-  </si>
-  <si>
-    <t>a3c0e645d2e3125bba388d439446fcb2</t>
-  </si>
-  <si>
-    <t>开展批评与自我批评</t>
-  </si>
-  <si>
-    <t>100111.ts</t>
-  </si>
-  <si>
-    <t>d7deb48d7b0c23348c701e56ccfbe42b</t>
-  </si>
-  <si>
-    <t>把纪律和规矩挺在前面</t>
-  </si>
-  <si>
-    <t>100112.ts</t>
-  </si>
-  <si>
-    <t>2e9d7bd7e3bf8092b990f976176f957e</t>
-  </si>
-  <si>
-    <t>100113.ts</t>
-  </si>
-  <si>
-    <t>6dd3da3b44f362ea36f0b35f8bb43372</t>
-  </si>
-  <si>
-    <t>俞复玲365社区服务工作法</t>
-  </si>
-  <si>
-    <t>100114.ts</t>
-  </si>
-  <si>
-    <t>基层党组织工作法</t>
-  </si>
-  <si>
-    <t>996de5bcf03e3063eb0ea4364012fc9c</t>
-  </si>
-  <si>
-    <t>文建明工作法</t>
-  </si>
-  <si>
-    <t>100115.ts</t>
-  </si>
-  <si>
-    <t>c5e862ffa5755164bed26bada460d74d</t>
-  </si>
-  <si>
-    <t>四议两公开工作法</t>
-  </si>
-  <si>
-    <t>100116.ts</t>
-  </si>
-  <si>
-    <t>257aee2b2077005e9fdceb7d2efe695e</t>
-  </si>
-  <si>
-    <t>百步亭工作法</t>
-  </si>
-  <si>
-    <t>100117.ts</t>
-  </si>
-  <si>
-    <t>77d4a840ec88424988be3810684b8512</t>
-  </si>
-  <si>
-    <t>陈惠芬融合工作法</t>
-  </si>
-  <si>
-    <t>100118.ts</t>
-  </si>
-  <si>
-    <t>6d6a416076e18679f3ef59250c0c44ff</t>
-  </si>
-  <si>
-    <t>蓉中工作法</t>
-  </si>
-  <si>
-    <t>100119.ts</t>
-  </si>
-  <si>
-    <t>0e0988d37dd64e05fae906bf87f00145</t>
-  </si>
-  <si>
-    <t>白领驿家工作法</t>
-  </si>
-  <si>
-    <t>100120.ts</t>
-  </si>
-  <si>
-    <t>a2df106fbe3a663e929bb79b76c8d2f9</t>
-  </si>
-  <si>
-    <t>红豆工作法</t>
-  </si>
-  <si>
-    <t>100121.ts</t>
-  </si>
-  <si>
-    <t>8aac45d27d66c1244d56f160eb1ece57</t>
-  </si>
-  <si>
-    <t>党员远程教育——党建园地　高校党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100122.ts</t>
-  </si>
-  <si>
-    <t>党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>c711da9ac275f800cbdc31c885724fe2</t>
-  </si>
-  <si>
-    <t>党建园地　农村党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100123.ts</t>
-  </si>
-  <si>
-    <t>9393a61f9ba43d5e63ba49db08e7902a</t>
-  </si>
-  <si>
-    <t>党建园地　社区党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100124.ts</t>
-  </si>
-  <si>
-    <t>a316d0a2b48359bda9589b60c35e31af</t>
-  </si>
-  <si>
-    <t>国企党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100125.ts</t>
-  </si>
-  <si>
-    <t>391332ad848cfa7b263d0c698f50eee9</t>
-  </si>
-  <si>
-    <t>民企党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100126.ts</t>
-  </si>
-  <si>
-    <t>9134c4fd28bf6e2d8bbafdc5d88590a1</t>
-  </si>
-  <si>
-    <t>外企党组织书记工作案例</t>
-  </si>
-  <si>
-    <t>100127.ts</t>
-  </si>
-  <si>
-    <t>0c4d63901cde166df6b713ccb98dc2af</t>
-  </si>
-  <si>
-    <t>中国共产党的性质</t>
-  </si>
-  <si>
-    <t>100128.ts</t>
-  </si>
-  <si>
-    <t>新时期入党培训专题讲座</t>
-  </si>
-  <si>
-    <t>455b83ed958cc426b79e59f150084ae4</t>
-  </si>
-  <si>
-    <t>党员的条件、义务和权利</t>
-  </si>
-  <si>
-    <t>100129.ts</t>
-  </si>
-  <si>
-    <t>3477c78c25b3b3b71f40835a7334850c</t>
-  </si>
-  <si>
-    <t>中国共产党的组织原则</t>
-  </si>
-  <si>
-    <t>100130.ts</t>
-  </si>
-  <si>
-    <t>75b06957e27b12e3bfed281e796eb12f</t>
-  </si>
-  <si>
-    <t>中国共产党的指导思想</t>
-  </si>
-  <si>
-    <t>100131.ts</t>
-  </si>
-  <si>
-    <t>542d1e17b9700665ab1e91abdfa1b6d7</t>
-  </si>
-  <si>
-    <t>中国共产党的基本纲领</t>
-  </si>
-  <si>
-    <t>100132.ts</t>
-  </si>
-  <si>
-    <t>42c9a97efae89ecfb0aec388e270a43c</t>
-  </si>
-  <si>
-    <t>党支部的地位作用和基本任务</t>
-  </si>
-  <si>
-    <t>100133.ts</t>
-  </si>
-  <si>
-    <t>新编党支部建设学习辅导讲座</t>
-  </si>
-  <si>
-    <t>9b1108674b21f8094efde4aa4d12187b</t>
-  </si>
-  <si>
-    <t>创新基层党建工作，全面提高党的建设科学化水平</t>
-  </si>
-  <si>
-    <t>100134.ts</t>
-  </si>
-  <si>
-    <t>4e23b5219f6981ce4f38c900f76327d5</t>
-  </si>
-  <si>
-    <t>党支部书记的使命，职责及如何做好新形势下党支部书记工作</t>
-  </si>
-  <si>
-    <t>100135.ts</t>
-  </si>
-  <si>
-    <t>0eb1c8d7f0b6bd6ef9b54e9199eb5365</t>
+    <t>风雨如磐</t>
+  </si>
+  <si>
+    <t>100136.ts</t>
+  </si>
+  <si>
+    <t>筑梦中国</t>
+  </si>
+  <si>
+    <t>178e2e9d3f0271b46b73c285c4b4f24e</t>
+  </si>
+  <si>
+    <t>中流击水</t>
+  </si>
+  <si>
+    <t>100137.ts</t>
+  </si>
+  <si>
+    <t>de58c2428669e2ec9e509fda8da20bc5</t>
+  </si>
+  <si>
+    <t>正道沧桑</t>
+  </si>
+  <si>
+    <t>100138.ts</t>
+  </si>
+  <si>
+    <t>646ac17b4f4f9d00bed72e87ed9fd931</t>
+  </si>
+  <si>
+    <t>发展新境</t>
+  </si>
+  <si>
+    <t>100139.ts</t>
+  </si>
+  <si>
+    <t>336a7cddda5db1841ae2e986c51ec365</t>
+  </si>
+  <si>
+    <t>世纪跨越</t>
+  </si>
+  <si>
+    <t>100140.ts</t>
+  </si>
+  <si>
+    <t>d04a16555c87b86622221e9f819d815b</t>
+  </si>
+  <si>
+    <t>伟大转折</t>
+  </si>
+  <si>
+    <t>100141.ts</t>
+  </si>
+  <si>
+    <t>dfe790eb877740b021a37e6d02247968</t>
+  </si>
+  <si>
+    <t>圆梦有时</t>
+  </si>
+  <si>
+    <t>100142.ts</t>
+  </si>
+  <si>
+    <t>270027ced323c076fc5cb81c07c71686</t>
+  </si>
+  <si>
+    <t>百年追梦</t>
+  </si>
+  <si>
+    <t>100143.ts</t>
+  </si>
+  <si>
+    <t>百年潮中国梦</t>
+  </si>
+  <si>
+    <t>8112703d4731859dbaa9fc7fc1fd4d9d</t>
+  </si>
+  <si>
+    <t>中国道路</t>
+  </si>
+  <si>
+    <t>100144.ts</t>
+  </si>
+  <si>
+    <t>c04ea2159e9d2e7f815b8bb620a43044</t>
+  </si>
+  <si>
+    <t>中国精神</t>
+  </si>
+  <si>
+    <t>100145.ts</t>
+  </si>
+  <si>
+    <t>0581774dfa649d492cbd91411f0e48f8</t>
+  </si>
+  <si>
+    <t>中国力量</t>
+  </si>
+  <si>
+    <t>100146.ts</t>
+  </si>
+  <si>
+    <t>2ca99b0100f373a06bb1ebf6b8b883e8</t>
+  </si>
+  <si>
+    <t>筑梦天下</t>
+  </si>
+  <si>
+    <t>100147.ts</t>
+  </si>
+  <si>
+    <t>57cd5300e58f0bc6207b4fbc034a7f8a</t>
+  </si>
+  <si>
+    <t>共产党宣言</t>
+  </si>
+  <si>
+    <t>100148.ts</t>
+  </si>
+  <si>
+    <t>重温经典</t>
+  </si>
+  <si>
+    <t>30d879b306f890b07082cee766dfb370</t>
+  </si>
+  <si>
+    <t>纪念白求恩</t>
+  </si>
+  <si>
+    <t>100149.ts</t>
+  </si>
+  <si>
+    <t>e799d70da2724e3935a321a9f42977d0</t>
+  </si>
+  <si>
+    <t>整顿党的作风</t>
+  </si>
+  <si>
+    <t>100150.ts</t>
+  </si>
+  <si>
+    <t>667b92b5c799d150638961466f7d7293</t>
+  </si>
+  <si>
+    <t>实践论</t>
+  </si>
+  <si>
+    <t>100151.ts</t>
+  </si>
+  <si>
+    <t>13437435ae973c42ed72fee10233487f</t>
+  </si>
+  <si>
+    <t>论共产党员的修养</t>
+  </si>
+  <si>
+    <t>100152.ts</t>
+  </si>
+  <si>
+    <t>011b8312a2562326624f48dc8693a669</t>
+  </si>
+  <si>
+    <t>关心群众生活，注意工作方法</t>
+  </si>
+  <si>
+    <t>100153.ts</t>
+  </si>
+  <si>
+    <t>c339a2d89fdd8b18d746df8f34044658</t>
+  </si>
+  <si>
+    <t>改造我们的学习</t>
+  </si>
+  <si>
+    <t>100154.ts</t>
+  </si>
+  <si>
+    <t>e9fd6877cc33c0cdd3f46021dade95a8</t>
+  </si>
+  <si>
+    <t>反对本本主义</t>
+  </si>
+  <si>
+    <t>100155.ts</t>
+  </si>
+  <si>
+    <t>bb738f43e01ad5827bae1c98970456a3</t>
+  </si>
+  <si>
+    <t>《农村调查》的序言和跋</t>
+  </si>
+  <si>
+    <t>100156.ts</t>
+  </si>
+  <si>
+    <t>a7dc91a01b46259c555eec52613a563c</t>
+  </si>
+  <si>
+    <t>反对党八股</t>
+  </si>
+  <si>
+    <t>100157.ts</t>
+  </si>
+  <si>
+    <t>d409ff990ee2c49161c15d14cf3f29c5</t>
+  </si>
+  <si>
+    <t>解放思想，实事求是，团结一致向前看</t>
+  </si>
+  <si>
+    <t>100158.ts</t>
+  </si>
+  <si>
+    <t>55d3ddc303389ca5e18dbcf68a7d88b7</t>
+  </si>
+  <si>
+    <t>关于正确处理人民内部矛盾的问题</t>
+  </si>
+  <si>
+    <t>100159.ts</t>
+  </si>
+  <si>
+    <t>70050e202c3d9d6fc8821c477c144020</t>
+  </si>
+  <si>
+    <t>我的修养要则</t>
+  </si>
+  <si>
+    <t>100160.ts</t>
+  </si>
+  <si>
+    <t>33ee2307aed7b0a01eb90f3ecd4f91f7</t>
+  </si>
+  <si>
+    <t>一靠理想二靠纪律才能团结起来</t>
+  </si>
+  <si>
+    <t>100161.ts</t>
+  </si>
+  <si>
+    <t>23d0cd83a7cd5ea6965e19796ecec513</t>
+  </si>
+  <si>
+    <t>高级干部要带头发扬党的优良传统</t>
+  </si>
+  <si>
+    <t>100162.ts</t>
+  </si>
+  <si>
+    <t>6005c3bbb9ab17ba21265d868f8b3a0c</t>
+  </si>
+  <si>
+    <t>克服目前西南党内的不良倾向</t>
+  </si>
+  <si>
+    <t>100163.ts</t>
+  </si>
+  <si>
+    <t>0733a00fdb0815d39ef95fdd3ff83264</t>
+  </si>
+  <si>
+    <t>在中共七届二中全会上的报告</t>
+  </si>
+  <si>
+    <t>100164.ts</t>
+  </si>
+  <si>
+    <t>766283facb2b2c991c0c92668681dc1f</t>
+  </si>
+  <si>
+    <t>论联合政府</t>
+  </si>
+  <si>
+    <t>100165.ts</t>
+  </si>
+  <si>
+    <t>3a915d27b709f8fef681b404e6019152</t>
+  </si>
+  <si>
+    <t>愚公移山</t>
+  </si>
+  <si>
+    <t>100166.ts</t>
+  </si>
+  <si>
+    <t>6c85a4dd0a246d36b30dd7d13730c1f1</t>
+  </si>
+  <si>
+    <t>为人民服务</t>
+  </si>
+  <si>
+    <t>100167.ts</t>
+  </si>
+  <si>
+    <t>356ebfa8aa67c4b23098fcbeef2c32f9</t>
+  </si>
+  <si>
+    <t>党员远教《严肃换届纪律》动漫宣传片</t>
+  </si>
+  <si>
+    <t>100168.ts</t>
+  </si>
+  <si>
+    <t>换届选举专栏</t>
+  </si>
+  <si>
+    <t>96d3d06b7936d2c5b718e78e9081caed</t>
+  </si>
+  <si>
+    <t>党员远教 2017年全区社区“两委”换届选举工作规程</t>
+  </si>
+  <si>
+    <t>100169.ts</t>
+  </si>
+  <si>
+    <t>8d38571ccebead1a373326301146a7dc</t>
+  </si>
+  <si>
+    <t>党员远教 全区2017年村“两委”换届选举工作规程</t>
+  </si>
+  <si>
+    <t>100170.ts</t>
+  </si>
+  <si>
+    <t>0b5919a4e62dd86324e111af28edebf6</t>
+  </si>
+  <si>
+    <t>党课开奖啦</t>
+  </si>
+  <si>
+    <t>100171.ts</t>
+  </si>
+  <si>
+    <t>先锋力量</t>
+  </si>
+  <si>
+    <t>0cac5c5e421bc7a41d5cb022ac1c3b94</t>
+  </si>
+  <si>
+    <t>我是党员—梁丽娜</t>
+  </si>
+  <si>
+    <t>100172.ts</t>
+  </si>
+  <si>
+    <t>我是党员</t>
+  </si>
+  <si>
+    <t>b0a7b09d4cd74901bbc3b89616eeee8a</t>
+  </si>
+  <si>
+    <t>我是党员—兰燕云</t>
+  </si>
+  <si>
+    <t>100173.ts</t>
+  </si>
+  <si>
+    <t>44d35eb2f47e3c755d1f65f26a23e8ae</t>
+  </si>
+  <si>
+    <t>我是党员—韦美芬</t>
+  </si>
+  <si>
+    <t>100174.ts</t>
+  </si>
+  <si>
+    <t>e29c5b4b873f6b6616cd4eb6d887f659</t>
+  </si>
+  <si>
+    <t>我是党员—王双飞</t>
+  </si>
+  <si>
+    <t>100175.ts</t>
+  </si>
+  <si>
+    <t>39b29f02a1a731a1f2d662deccdb701a</t>
+  </si>
+  <si>
+    <t>我是党员—杨剑华</t>
+  </si>
+  <si>
+    <t>100176.ts</t>
+  </si>
+  <si>
+    <t>ad88f51e642adb6d50bfa5c637d64084</t>
+  </si>
+  <si>
+    <t>我是党员—丘柳滨最终修改版</t>
+  </si>
+  <si>
+    <t>100177.ts</t>
+  </si>
+  <si>
+    <t>209e115fef83bf00daf31299e8e316c4</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—农凤娟</t>
+  </si>
+  <si>
+    <t>100178.ts</t>
+  </si>
+  <si>
+    <t>208b5f31104d33a6c0903e5f880e983f</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—杜丽群</t>
+  </si>
+  <si>
+    <t>100179.ts</t>
+  </si>
+  <si>
+    <t>b23eeda40cc14d45ae4fb21c17e2e97e</t>
+  </si>
+  <si>
+    <t>先锋力量 16我是党员（何玲）</t>
+  </si>
+  <si>
+    <t>100180.ts</t>
+  </si>
+  <si>
+    <t>8a9138d569835d74c9dedae0823a6173</t>
+  </si>
+  <si>
+    <t>先锋力量 18我是党员（黄文宣）</t>
+  </si>
+  <si>
+    <t>100181.ts</t>
+  </si>
+  <si>
+    <t>3f0ee9ae60bb4f6660a58407da75c3f6</t>
+  </si>
+  <si>
+    <t>先锋力量 17我是党员（黄树新）</t>
+  </si>
+  <si>
+    <t>100182.ts</t>
+  </si>
+  <si>
+    <t>6f1b47eff031745cd72e89190aa2050d</t>
+  </si>
+  <si>
+    <t>先锋力量 19我是党员（黄雪慧）</t>
+  </si>
+  <si>
+    <t>100183.ts</t>
+  </si>
+  <si>
+    <t>dce52eb5437afe56759161c3028d36d5</t>
+  </si>
+  <si>
+    <t>先锋力量 20我是党员（赖玉梅）</t>
+  </si>
+  <si>
+    <t>100184.ts</t>
+  </si>
+  <si>
+    <t>f9168963ea17902414e15fa6e0ce5443</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—周亚仙</t>
+  </si>
+  <si>
+    <t>100185.ts</t>
+  </si>
+  <si>
+    <t>c1d448a2913272bb0ca52573f02d2002</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—黄忠文</t>
+  </si>
+  <si>
+    <t>100186.ts</t>
+  </si>
+  <si>
+    <t>0a6110001277565fe6f358ea133c657a</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—范航清</t>
+  </si>
+  <si>
+    <t>100187.ts</t>
+  </si>
+  <si>
+    <t>1c45ab1d2001555d25fc49befa1ca112</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—夏四初</t>
+  </si>
+  <si>
+    <t>100188.ts</t>
+  </si>
+  <si>
+    <t>73df7baaa0cb70e770caf06e1098af5d</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—蒙晓梅</t>
+  </si>
+  <si>
+    <t>100189.ts</t>
+  </si>
+  <si>
+    <t>b362575904602a29eb191e534b417213</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—陆永</t>
+  </si>
+  <si>
+    <t>100190.ts</t>
+  </si>
+  <si>
+    <t>5c9a5e928d169d3221e1ee9fa1cf2393</t>
+  </si>
+  <si>
+    <t>党员远教 我是党员—黄墁</t>
+  </si>
+  <si>
+    <t>100191.ts</t>
+  </si>
+  <si>
+    <t>e9401e06265a88842b5d9aaf025df661</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（赵小羽）</t>
+  </si>
+  <si>
+    <t>100192.ts</t>
+  </si>
+  <si>
+    <t>fd6794bc71fec3f5f2d7bddbc9d2616d</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（廖邱东）</t>
+  </si>
+  <si>
+    <t>100193.ts</t>
+  </si>
+  <si>
+    <t>d077d2d64528a3cd511b9753e2890e0d</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（蒋洪锋）</t>
+  </si>
+  <si>
+    <t>100194.ts</t>
+  </si>
+  <si>
+    <t>a25db424ed845e775eb4ef2703a3efa9</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（陈君龙）</t>
+  </si>
+  <si>
+    <t>100195.ts</t>
+  </si>
+  <si>
+    <t>6088fa8e14447ec0e0b474fab31a4bc5</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（陆火旺）</t>
+  </si>
+  <si>
+    <t>100196.ts</t>
+  </si>
+  <si>
+    <t>be0a434fcd263e2685c89f9597c9cdc3</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（许丹强）</t>
+  </si>
+  <si>
+    <t>100197.ts</t>
+  </si>
+  <si>
+    <t>4ed16c3d07e0a7fe41d8a8690f3713b0</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（蓝绍会）</t>
+  </si>
+  <si>
+    <t>100198.ts</t>
+  </si>
+  <si>
+    <t>4b73d6258c7251fdf9e6672a09014944</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（张愈璞）</t>
+  </si>
+  <si>
+    <t>100199.ts</t>
+  </si>
+  <si>
+    <t>be016066627b4dd4c0223ab43cb3abb0</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（莫洪林）</t>
+  </si>
+  <si>
+    <t>100200.ts</t>
+  </si>
+  <si>
+    <t>1eb9baeb6dbcc9cea9109a07826e0b9c</t>
+  </si>
+  <si>
+    <t>先锋力量 我是党员（孙涛）</t>
+  </si>
+  <si>
+    <t>100201.ts</t>
+  </si>
+  <si>
+    <t>4e6400d5badf4b656cec2a65f06a6901</t>
+  </si>
+  <si>
+    <t>不朽的马克思 上集</t>
+  </si>
+  <si>
+    <t>100202.ts</t>
+  </si>
+  <si>
+    <t>不朽的马克思</t>
+  </si>
+  <si>
+    <t>572667a125330d7956ece074e06d2ddd</t>
+  </si>
+  <si>
+    <t>不朽的马克思 下集</t>
+  </si>
+  <si>
+    <t>100203.ts</t>
+  </si>
+  <si>
+    <t>ab7f327fafd7dda329a4a401594171f6</t>
+  </si>
+  <si>
+    <t>你好 马克思</t>
+  </si>
+  <si>
+    <t>100204.ts</t>
+  </si>
+  <si>
+    <t>马克思是对的</t>
+  </si>
+  <si>
+    <t>6a6ef8e358f4c0e1c44acd223a2637fc</t>
+  </si>
+  <si>
+    <t>洞悉世界的眼睛</t>
+  </si>
+  <si>
+    <t>100205.ts</t>
+  </si>
+  <si>
+    <t>bc3930b75ef2e9aca962fa2347c4411a</t>
+  </si>
+  <si>
+    <t>不朽的《资本论》</t>
+  </si>
+  <si>
+    <t>100206.ts</t>
+  </si>
+  <si>
+    <t>852ad4317a07ae94ec493df9b403e3dd</t>
+  </si>
+  <si>
+    <t>解放全人类的胸怀</t>
+  </si>
+  <si>
+    <t>100207.ts</t>
+  </si>
+  <si>
+    <t>56e04885045754cf8056b4abb77762a8</t>
+  </si>
+  <si>
+    <t>千年思想家</t>
+  </si>
+  <si>
+    <t>100208.ts</t>
+  </si>
+  <si>
+    <t>2b93540fbd1818e8f97f05e9e72d191d</t>
+  </si>
+  <si>
+    <t>寻访马克思 德国：思想的启蒙</t>
+  </si>
+  <si>
+    <t>100209.ts</t>
+  </si>
+  <si>
+    <t>寻访马克思</t>
+  </si>
+  <si>
+    <t>2bfe51e7cbb068fd1670997daef0af82</t>
+  </si>
+  <si>
+    <t>寻访马克思 巴黎：伟大的相遇</t>
+  </si>
+  <si>
+    <t>100210.ts</t>
+  </si>
+  <si>
+    <t>4ce3ec422ee731c2868261d4d2765159</t>
+  </si>
+  <si>
+    <t>寻访马克思 比利时：明灯从这里升起</t>
+  </si>
+  <si>
+    <t>100211.ts</t>
+  </si>
+  <si>
+    <t>a8399d024b450f9f56903f39a8b347e8</t>
+  </si>
+  <si>
+    <t>寻访马克思 英国：历史的脚印</t>
+  </si>
+  <si>
+    <t>100212.ts</t>
+  </si>
+  <si>
+    <t>a546661d4969cf0c98d1a132f0c28cb1</t>
+  </si>
+  <si>
+    <t>第一集</t>
+  </si>
+  <si>
+    <t>100213.ts</t>
+  </si>
+  <si>
+    <t>信仰</t>
+  </si>
+  <si>
+    <t>878ed390ca96b3461cdb123d983a929b</t>
+  </si>
+  <si>
+    <t>第二集</t>
+  </si>
+  <si>
+    <t>100214.ts</t>
+  </si>
+  <si>
+    <t>6c35d90bf73a3ee745fa479fbe4c0dab</t>
+  </si>
+  <si>
+    <t>第三集</t>
+  </si>
+  <si>
+    <t>100215.ts</t>
+  </si>
+  <si>
+    <t>cc070d5573eb5a0fced547be38376f38</t>
+  </si>
+  <si>
+    <t>《榜样2》</t>
+  </si>
+  <si>
+    <t>100216.ts</t>
+  </si>
+  <si>
+    <t>榜样</t>
+  </si>
+  <si>
+    <t>aca96a7f6d46244406706f267def0d21</t>
+  </si>
+  <si>
+    <t>《榜样3》</t>
+  </si>
+  <si>
+    <t>100217.ts</t>
+  </si>
+  <si>
+    <t>1683426203bde63852554166c0c808e8</t>
+  </si>
+  <si>
+    <t>刘春海：双街村致富领路人</t>
+  </si>
+  <si>
+    <t>100218.ts</t>
+  </si>
+  <si>
+    <t>最美支部书记</t>
+  </si>
+  <si>
+    <t>168b4211ff858e02e1245dd8ad7c07f1</t>
+  </si>
+  <si>
+    <t>段爱平：“拼命支书”</t>
+  </si>
+  <si>
+    <t>100219.ts</t>
+  </si>
+  <si>
+    <t>572b019b3afe5d641e7458a12ca6ba2e</t>
+  </si>
+  <si>
+    <t>林丹：“小巷总理”</t>
+  </si>
+  <si>
+    <t>100220.ts</t>
+  </si>
+  <si>
+    <t>1612f0f53aab3580bf0e4e19ea76ff9c</t>
+  </si>
+  <si>
+    <t>代大明：用生命践行承诺</t>
+  </si>
+  <si>
+    <t>100221.ts</t>
+  </si>
+  <si>
+    <t>ea8cf048ee6053d00848fae91905630a</t>
+  </si>
+  <si>
+    <t>裴春亮：饮水思源报乡恩</t>
+  </si>
+  <si>
+    <t>100222.ts</t>
+  </si>
+  <si>
+    <t>fed443eb48a0545936e40b75b7a6d8d5</t>
+  </si>
+  <si>
+    <t>马建峰：逐梦戈壁滩</t>
+  </si>
+  <si>
+    <t>100223.ts</t>
+  </si>
+  <si>
+    <t>6404fe2f23a536e0953d51fbaae444ea</t>
+  </si>
+  <si>
+    <t>王勇：带民勇闯“幸福路”</t>
+  </si>
+  <si>
+    <t>100224.ts</t>
+  </si>
+  <si>
+    <t>520809484800853745209e2992a99fe2</t>
+  </si>
+  <si>
+    <t>杨帮武：“铁支书”</t>
+  </si>
+  <si>
+    <t>100225.ts</t>
+  </si>
+  <si>
+    <t>28cc963c9eb99b7bb6485f19625fc957</t>
+  </si>
+  <si>
+    <t>田文武：文武书记</t>
+  </si>
+  <si>
+    <t>100226.ts</t>
+  </si>
+  <si>
+    <t>a5f4a49ad5e5aea1f365258d81b2a370</t>
+  </si>
+  <si>
+    <t>杜良：一心为民好支书</t>
+  </si>
+  <si>
+    <t>100227.ts</t>
+  </si>
+  <si>
+    <t>a62c2dcf5d319f0ff6233e3effb38b32</t>
+  </si>
+  <si>
+    <t>王家元：石头上开出幸福花</t>
+  </si>
+  <si>
+    <t>100228.ts</t>
+  </si>
+  <si>
+    <t>1bdd3d9a1035d3360d9c94b6a0218b71</t>
+  </si>
+  <si>
+    <t>雷洋洲：用奉献书写人生价值.</t>
+  </si>
+  <si>
+    <t>100229.ts</t>
+  </si>
+  <si>
+    <t>22a2781161bd8d97d532d4caba970948</t>
+  </si>
+  <si>
+    <t>王桂兰：为了对百姓的承诺</t>
+  </si>
+  <si>
+    <t>100230.ts</t>
+  </si>
+  <si>
+    <t>8c8bd925d342c6b73a58ca9d1317940c</t>
+  </si>
+  <si>
+    <t>吴栋材：做一名称职的干部</t>
+  </si>
+  <si>
+    <t>100231.ts</t>
+  </si>
+  <si>
+    <t>db7644e3ff8496c9485c2128e6d3c730</t>
+  </si>
+  <si>
+    <t>陈叶翠：把党的温暖送进千家万户</t>
+  </si>
+  <si>
+    <t>100232.ts</t>
+  </si>
+  <si>
+    <t>e8236685884a423cc7ad670686a437fb</t>
+  </si>
+  <si>
+    <t>余留芬：山村致富“女能人”</t>
+  </si>
+  <si>
+    <t>100233.ts</t>
+  </si>
+  <si>
+    <t>54fd2f3fe88076fb3558b3c9fa10a804</t>
+  </si>
+  <si>
+    <t>朱张金：“我当农民我自豪”</t>
+  </si>
+  <si>
+    <t>100234.ts</t>
+  </si>
+  <si>
+    <t>06b2073d6df77f029aa1fd850ba95acc</t>
+  </si>
+  <si>
+    <t>黄欣泉：山村致富“筑路人”</t>
+  </si>
+  <si>
+    <t>100235.ts</t>
+  </si>
+  <si>
+    <t>44afbde0464a3f3112ddf73c6bdbcaca</t>
+  </si>
+  <si>
+    <t>赵鑫娥：在希望的田野上</t>
+  </si>
+  <si>
+    <t>100236.ts</t>
+  </si>
+  <si>
+    <t>6d0bff6c092c1226e86c7922aeead803</t>
+  </si>
+  <si>
+    <t>李全兴：让幸福流淌在山泉村</t>
+  </si>
+  <si>
+    <t>100237.ts</t>
+  </si>
+  <si>
+    <t>ad7e1852239bbc4a03c7fb24c12815be</t>
+  </si>
+  <si>
+    <t>庞启机：无愧于群众的信赖</t>
+  </si>
+  <si>
+    <t>100238.ts</t>
+  </si>
+  <si>
+    <t>38f153cf4112fd3596da03af3d79fc28</t>
+  </si>
+  <si>
+    <t>苏莉：做群众满意的大学生“村官”</t>
+  </si>
+  <si>
+    <t>100239.ts</t>
+  </si>
+  <si>
+    <t>818266d0f1fd38705e74690baec46520</t>
+  </si>
+  <si>
+    <t>项瑞芝：热血播散边疆牧场</t>
+  </si>
+  <si>
+    <t>100240.ts</t>
+  </si>
+  <si>
+    <t>3309677a6ccf841505f2df023fc252ea</t>
+  </si>
+  <si>
+    <t>热西达·阿不拉：社区的“女儿”</t>
+  </si>
+  <si>
+    <t>100241.ts</t>
+  </si>
+  <si>
+    <t>3bc3a36f362862baa6039c57d1465258</t>
+  </si>
+  <si>
+    <t>廷·巴特尔：草原之子</t>
+  </si>
+  <si>
+    <t>100242.ts</t>
+  </si>
+  <si>
+    <t>076db1bbfd0a080648e170be316d4cb2</t>
+  </si>
+  <si>
+    <t>贺兰珍：山庄村的“女当家”</t>
+  </si>
+  <si>
+    <t>100243.ts</t>
+  </si>
+  <si>
+    <t>e0e08ffa73dc8604a29e49bfd16fc958</t>
+  </si>
+  <si>
+    <t>朱彦夫：生命的强者奉献的楷模</t>
+  </si>
+  <si>
+    <t>100244.ts</t>
+  </si>
+  <si>
+    <t>60e1e9f036790d0e8ee4192f09fba360</t>
+  </si>
+  <si>
+    <t>贾东亮：脱下军装的创业战士</t>
+  </si>
+  <si>
+    <t>100245.ts</t>
+  </si>
+  <si>
+    <t>0400f7fe7e79e0b94951098af4162c2d</t>
+  </si>
+  <si>
+    <t>王光国：“当代愚公”</t>
+  </si>
+  <si>
+    <t>100246.ts</t>
+  </si>
+  <si>
+    <t>f0dea578a11c94bf89b651c732c29457</t>
+  </si>
+  <si>
+    <t>张道成：倾情为民40年</t>
+  </si>
+  <si>
+    <t>100247.ts</t>
+  </si>
+  <si>
+    <t>c398a7894156e7328a2824f0359ad06b</t>
+  </si>
+  <si>
+    <t>牙生·吐尔逊：做对群众有用的人</t>
+  </si>
+  <si>
+    <t>100248.ts</t>
+  </si>
+  <si>
+    <t>1846f3b8cdb28e15d7d3c8cfc113af31</t>
   </si>
 </sst>
 </file>
@@ -1251,20 +1725,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1613,10 +2082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="4"/>
@@ -1646,839 +2115,1513 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
       <c r="E34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="B52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" t="s">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" t="s">
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D2:D19"/>
+  <mergeCells count="11">
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C38:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C114"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/storage/media.xlsx
+++ b/storage/media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>sub_name</t>
   </si>
@@ -31,439 +31,625 @@
     <t>md5</t>
   </si>
   <si>
-    <t>攻坚 全区脱贫工作先进事迹主题情景报告会（83分）</t>
-  </si>
-  <si>
-    <t>100257.ts</t>
-  </si>
-  <si>
-    <t>先进事迹报告会</t>
-  </si>
-  <si>
-    <t>da025d6d2f616568306625de0ebed7ce</t>
-  </si>
-  <si>
-    <t>莫振高同志先进事迹主题情景报告会</t>
-  </si>
-  <si>
-    <t>100258.ts</t>
-  </si>
-  <si>
-    <t>fe97b903ff1bd526974be0c72f8a04f4</t>
-  </si>
-  <si>
-    <t>海魂——骆春伟同志先进事迹情景报告会</t>
-  </si>
-  <si>
-    <t>100259.ts</t>
-  </si>
-  <si>
-    <t>4ef4efb1e6bc3a40c0bf1235f8e7c986</t>
-  </si>
-  <si>
-    <t>燃尽生命写忠诚-李林森</t>
-  </si>
-  <si>
-    <t>100260.ts</t>
-  </si>
-  <si>
-    <t>践行群众路线的好榜样</t>
-  </si>
-  <si>
-    <t>bf50c0adb575dc0932a267bb85030e64</t>
-  </si>
-  <si>
-    <t>生命的重量-文建明</t>
-  </si>
-  <si>
-    <t>100261.ts</t>
-  </si>
-  <si>
-    <t>01b5fa9b4873cc3047a4bb3ab5fdcf8c</t>
-  </si>
-  <si>
-    <t>爱的传承-周标亮</t>
-  </si>
-  <si>
-    <t>100262.ts</t>
-  </si>
-  <si>
-    <t>3f3376747535a6f21b37e5793f76e54f</t>
-  </si>
-  <si>
-    <t>扎根高原献忠诚-张宇</t>
-  </si>
-  <si>
-    <t>100263.ts</t>
-  </si>
-  <si>
-    <t>b383ab06022f8c8c7ee7894ae16b8194</t>
-  </si>
-  <si>
-    <t>坚守-刘刚</t>
-  </si>
-  <si>
-    <t>100264.ts</t>
-  </si>
-  <si>
-    <t>21a60c99942777650e7e0d08ba56e9a9</t>
-  </si>
-  <si>
-    <t>幸福生活领路人-常德盛</t>
-  </si>
-  <si>
-    <t>100265.ts</t>
-  </si>
-  <si>
-    <t>7058b298c8698a0fce3222d273d2ed74</t>
-  </si>
-  <si>
-    <t>草原之子-廷·巴特尔</t>
-  </si>
-  <si>
-    <t>100266.ts</t>
-  </si>
-  <si>
-    <t>e6f1afe67cceeffa0230616b6b873570</t>
-  </si>
-  <si>
-    <t>保山的故事-荆保山</t>
-  </si>
-  <si>
-    <t>100267.ts</t>
-  </si>
-  <si>
-    <t>68b0d8708cc5dedbcc67effbd1d2e1eb</t>
-  </si>
-  <si>
-    <t>外来当家人-支芬</t>
-  </si>
-  <si>
-    <t>100268.ts</t>
-  </si>
-  <si>
-    <t>81906d6175cb6e8f020711c7d6451a39</t>
-  </si>
-  <si>
-    <t>拼命书记-范振喜</t>
-  </si>
-  <si>
-    <t>100269.ts</t>
-  </si>
-  <si>
-    <t>ac84c2cc8cfc123ee55de6bb500dc702</t>
-  </si>
-  <si>
-    <t>大地为鉴-王伯祥</t>
-  </si>
-  <si>
-    <t>100270.ts</t>
-  </si>
-  <si>
-    <t>1e4410cef544912309ed6cb38a7e9e2d</t>
-  </si>
-  <si>
-    <t>苏莉的爱-苏莉</t>
-  </si>
-  <si>
-    <t>100271.ts</t>
-  </si>
-  <si>
-    <t>4aa1041e0e0d8f13738a8434e8cc418c</t>
-  </si>
-  <si>
-    <t>永葆本色-龚全珍</t>
-  </si>
-  <si>
-    <t>100272.ts</t>
-  </si>
-  <si>
-    <t>969dc22d693689e721d548a25d451600</t>
-  </si>
-  <si>
-    <t>生命的奉献-兰辉</t>
-  </si>
-  <si>
-    <t>100273.ts</t>
-  </si>
-  <si>
-    <t>ed950927294863a57c73fb006fed32f5</t>
-  </si>
-  <si>
-    <t>人民警察-周贤良</t>
-  </si>
-  <si>
-    <t>100274.ts</t>
-  </si>
-  <si>
-    <t>2f2a36edf44e435e1c1570b42f3245fe</t>
-  </si>
-  <si>
-    <t>亚夫追梦-赵亚夫</t>
-  </si>
-  <si>
-    <t>100275.ts</t>
-  </si>
-  <si>
-    <t>39cae1e95937123e2176947c519bf0b5</t>
-  </si>
-  <si>
-    <t>寻梦黑城-苏和</t>
-  </si>
-  <si>
-    <t>100276.ts</t>
-  </si>
-  <si>
-    <t>fee6b33dc12936b34ef97aca8506bebe</t>
-  </si>
-  <si>
-    <t>人民群众离不开的好干部-沈浩</t>
-  </si>
-  <si>
-    <t>100277.ts</t>
-  </si>
-  <si>
-    <t>ab0c43c0e7ffc86461fb72c07df78850</t>
-  </si>
-  <si>
-    <t>胡杨风采-赵鑫娥</t>
-  </si>
-  <si>
-    <t>100278.ts</t>
-  </si>
-  <si>
-    <t>315e676da7094de5b9062cfcc68b5154</t>
-  </si>
-  <si>
-    <t>大山饮水情-彭云</t>
-  </si>
-  <si>
-    <t>100279.ts</t>
-  </si>
-  <si>
-    <t>6ce5fcac4f7d8e09c615515e9e963416</t>
-  </si>
-  <si>
-    <t>未来有我不一样-2020年《红色传奇》进校园成果展示主题晚会</t>
-  </si>
-  <si>
-    <t>100280.ts</t>
-  </si>
-  <si>
-    <t>2020《红色传奇》进校园系列活动</t>
-  </si>
-  <si>
-    <t>红色传奇</t>
-  </si>
-  <si>
-    <t>606921c7aa55136958c85f9ebbaf56dc</t>
-  </si>
-  <si>
-    <t>不忘初心、牢记使命《红色传奇》进高校系列活动启动仪式</t>
-  </si>
-  <si>
-    <t>100281.ts</t>
-  </si>
-  <si>
-    <t>《红色传奇》进高校系列活动</t>
-  </si>
-  <si>
-    <t>7a35743de5f5b1f2151f78f350583a1f</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第1集 学习版</t>
-  </si>
-  <si>
-    <t>100282.ts</t>
-  </si>
-  <si>
-    <t>红色传奇 I</t>
-  </si>
-  <si>
-    <t>1cd036b409eb297472ae5bda99674853</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第2集 教材版</t>
-  </si>
-  <si>
-    <t>100283.ts</t>
-  </si>
-  <si>
-    <t>a82a7e8a7695d6d4c62091728f32d975</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第3集 教材版</t>
-  </si>
-  <si>
-    <t>100284.ts</t>
-  </si>
-  <si>
-    <t>8c746176429f1a7f80c0145dfa091cbb</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第4集 教材版</t>
-  </si>
-  <si>
-    <t>100285.ts</t>
-  </si>
-  <si>
-    <t>3cbc48b75d408bda30b7789342237d28</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第5集 教材版</t>
-  </si>
-  <si>
-    <t>100286.ts</t>
-  </si>
-  <si>
-    <t>45aba0f52c00304693806c3f55fbf85e</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第6集 教材版</t>
-  </si>
-  <si>
-    <t>100287.ts</t>
-  </si>
-  <si>
-    <t>f9f953e6fbf847a86102e5eac204ce1e</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第7集 教材版</t>
-  </si>
-  <si>
-    <t>100288.ts</t>
-  </si>
-  <si>
-    <t>b60731202ce439e9f37a451112cdbf6d</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第8集 教材版</t>
-  </si>
-  <si>
-    <t>100289.ts</t>
-  </si>
-  <si>
-    <t>b1e18a647213765b86cb5acd5298c2a8</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第9集 教材版</t>
-  </si>
-  <si>
-    <t>100290.ts</t>
-  </si>
-  <si>
-    <t>4fa1a5239578b8acca11e659598d9ae8</t>
-  </si>
-  <si>
-    <t>红色传奇（第一季）第10集 教材版</t>
-  </si>
-  <si>
-    <t>100291.ts</t>
-  </si>
-  <si>
-    <t>1ea0604b7078f873b27fe3895b859a13</t>
-  </si>
-  <si>
-    <t>《红色传奇II》总宣传片</t>
-  </si>
-  <si>
-    <t>100292.ts</t>
-  </si>
-  <si>
-    <t>红色传奇 II</t>
-  </si>
-  <si>
-    <t>50d1765f34782e52d83a2e195a28b16a</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第1集 教材版</t>
-  </si>
-  <si>
-    <t>100293.ts</t>
-  </si>
-  <si>
-    <t>b9cd2cc4dd30fe9c3191cc8a719e0c82</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第2集 教材版</t>
-  </si>
-  <si>
-    <t>100294.ts</t>
-  </si>
-  <si>
-    <t>51fab203f977080352e2e7fd5f47b728</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第3集 教材版</t>
-  </si>
-  <si>
-    <t>100295.ts</t>
-  </si>
-  <si>
-    <t>a82fcd2cc9f110afc25776cc7e8948d2</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第4集 教材版</t>
-  </si>
-  <si>
-    <t>100296.ts</t>
-  </si>
-  <si>
-    <t>21bafa1471a9bf103326130b99ee0643</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第5集 教材版</t>
-  </si>
-  <si>
-    <t>100297.ts</t>
-  </si>
-  <si>
-    <t>30893893598943d48e47cbc8efb4dee2</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第6集 教材版</t>
-  </si>
-  <si>
-    <t>100298.ts</t>
-  </si>
-  <si>
-    <t>a217d524ed6cdf465976df71b6030a09</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第7集 教材版</t>
-  </si>
-  <si>
-    <t>100299.ts</t>
-  </si>
-  <si>
-    <t>93f96f90cc569a4019027475046d922c</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第9集 教材版</t>
-  </si>
-  <si>
-    <t>100300.ts</t>
-  </si>
-  <si>
-    <t>20b38372b658bdfdcb8163b484749afa</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第8集 教材版</t>
-  </si>
-  <si>
-    <t>100301.ts</t>
-  </si>
-  <si>
-    <t>9a7a1dca22fdd18270174976e89a43b7</t>
-  </si>
-  <si>
-    <t>红色传奇（第二季）第10集 教材版</t>
-  </si>
-  <si>
-    <t>100302.ts</t>
-  </si>
-  <si>
-    <t>219c8e1ec1039c305551c2f99f0f94ae</t>
+    <t>抗击非洲猪瘟的人</t>
+  </si>
+  <si>
+    <t>100517.ts</t>
+  </si>
+  <si>
+    <t>微视频</t>
+  </si>
+  <si>
+    <t>b447a17e1e8f66dd9be43ad17d8fcfd1</t>
+  </si>
+  <si>
+    <t>党员先锋—覃水连</t>
+  </si>
+  <si>
+    <t>100518.ts</t>
+  </si>
+  <si>
+    <t>799d9b69f6123c15df993758b169655f</t>
+  </si>
+  <si>
+    <t>“拼命三郎”司法所长</t>
+  </si>
+  <si>
+    <t>100519.ts</t>
+  </si>
+  <si>
+    <t>da5d853fd0b66e940e2df6c88b82bede</t>
+  </si>
+  <si>
+    <t>新时代的最美奋斗者——彭达长</t>
+  </si>
+  <si>
+    <t>100520.ts</t>
+  </si>
+  <si>
+    <t>b8e482a25cc742083af8f1a124d32b74</t>
+  </si>
+  <si>
+    <t>乡长爸爸</t>
+  </si>
+  <si>
+    <t>100521.ts</t>
+  </si>
+  <si>
+    <t>8b02f443bb8f6101540ee254a9033b4a</t>
+  </si>
+  <si>
+    <t>以坚守 致初心</t>
+  </si>
+  <si>
+    <t>100522.ts</t>
+  </si>
+  <si>
+    <t>7523523bf6413d100503eaf67442f837</t>
+  </si>
+  <si>
+    <t>交换时光 存取幸福</t>
+  </si>
+  <si>
+    <t>100523.ts</t>
+  </si>
+  <si>
+    <t>72195beacdfe769154502df4aeab733a</t>
+  </si>
+  <si>
+    <t>新时代的瑶绣传承者——李素芳</t>
+  </si>
+  <si>
+    <t>100524.ts</t>
+  </si>
+  <si>
+    <t>33f808b0411b319650ff7566a5863d75</t>
+  </si>
+  <si>
+    <t>永跟党走 不忘初心系列微视频之王辛佑</t>
+  </si>
+  <si>
+    <t>100525.ts</t>
+  </si>
+  <si>
+    <t>36fb40249d9d535860dc90090e2516cb</t>
+  </si>
+  <si>
+    <t>永跟党走 不忘初心系列微视频之杨莲</t>
+  </si>
+  <si>
+    <t>100526.ts</t>
+  </si>
+  <si>
+    <t>9aa92be4b6e7ab2e9a2848539c13d96d</t>
+  </si>
+  <si>
+    <t>村有“廉洁监督哨”</t>
+  </si>
+  <si>
+    <t>100527.ts</t>
+  </si>
+  <si>
+    <t>97bedbd588a5da25aa689d54dd140c1f</t>
+  </si>
+  <si>
+    <t>炮台山上的坚守</t>
+  </si>
+  <si>
+    <t>100528.ts</t>
+  </si>
+  <si>
+    <t>637f381bdff777611f79d7b4eee40a0f</t>
+  </si>
+  <si>
+    <t>共耕有其甜</t>
+  </si>
+  <si>
+    <t>100529.ts</t>
+  </si>
+  <si>
+    <t>71dbc68cac4b628f2f7830551121c357</t>
+  </si>
+  <si>
+    <t>不忘初心，以法行善</t>
+  </si>
+  <si>
+    <t>100530.ts</t>
+  </si>
+  <si>
+    <t>31668774c06bb5538f878bb1bc467e2b</t>
+  </si>
+  <si>
+    <t>新时代的职业农民——刘泽辉</t>
+  </si>
+  <si>
+    <t>100531.ts</t>
+  </si>
+  <si>
+    <t>03c8eacdf8db2c582a6b4b8b35ed3c49</t>
+  </si>
+  <si>
+    <t>菜鸟逆袭记</t>
+  </si>
+  <si>
+    <t>100532.ts</t>
+  </si>
+  <si>
+    <t>58351d46d49d35bc0cc7b2031a5f220d</t>
+  </si>
+  <si>
+    <t>带着孩子去扶贫</t>
+  </si>
+  <si>
+    <t>100533.ts</t>
+  </si>
+  <si>
+    <t>851782ab30044127234e8f14c540df01</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 丝丝造绸 匠心惠民（黄康东）</t>
+  </si>
+  <si>
+    <t>100534.ts</t>
+  </si>
+  <si>
+    <t>4d5d73fee8fe2821883f0d95de3a0436</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 匠心不倦 探索求新（蓝家湖）</t>
+  </si>
+  <si>
+    <t>100535.ts</t>
+  </si>
+  <si>
+    <t>7f334c1171ece9c50471d347868b83d8</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 坚守信念 井下尖兵（黄文宣）</t>
+  </si>
+  <si>
+    <t>100536.ts</t>
+  </si>
+  <si>
+    <t>6ae349c18fb93d401fe5e8f9f8edc072</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 春风化雨 匠心树人（黄献芬）</t>
+  </si>
+  <si>
+    <t>100537.ts</t>
+  </si>
+  <si>
+    <t>771e386226564057a00b2d81be78f75a</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 凡心敬业 金城至美（韦碧翠）</t>
+  </si>
+  <si>
+    <t>100538.ts</t>
+  </si>
+  <si>
+    <t>73a254d8727476ea7283790cb84d9675</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 医者仁心 责任使命（唐秀革）</t>
+  </si>
+  <si>
+    <t>100539.ts</t>
+  </si>
+  <si>
+    <t>1ce10c98459277976b04d80e4d54284d</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 情理入法 惠心惠民（潘嘉芳）</t>
+  </si>
+  <si>
+    <t>100540.ts</t>
+  </si>
+  <si>
+    <t>25d2055530ef59cb91cbb0d97d9b9c94</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 忠魂铸剑 除恶为民（周小东）</t>
+  </si>
+  <si>
+    <t>100541.ts</t>
+  </si>
+  <si>
+    <t>b068288d7c5103dde118b35cb1834b6b</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 电力能手 光明使者（李步锦）</t>
+  </si>
+  <si>
+    <t>100542.ts</t>
+  </si>
+  <si>
+    <t>d3fd3c6ce645efab6922e870decb8d90</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 持之以恒 匠心栽培（张武贵）</t>
+  </si>
+  <si>
+    <t>100543.ts</t>
+  </si>
+  <si>
+    <t>5d49e436314befc9efb8b081376734c6</t>
+  </si>
+  <si>
+    <t>《匠心筑梦 河池榜样》系列 酒道匠心  香飘八桂（覃建良）</t>
+  </si>
+  <si>
+    <t>100544.ts</t>
+  </si>
+  <si>
+    <t>7b8c9b8526be5e3642eede1fc2b3bb18</t>
+  </si>
+  <si>
+    <t>巾帼之花别样红</t>
+  </si>
+  <si>
+    <t>100545.ts</t>
+  </si>
+  <si>
+    <t>c94b6af1b7ca34996e8eda62e0110baa</t>
+  </si>
+  <si>
+    <t>茶旅融合新布央</t>
+  </si>
+  <si>
+    <t>100546.ts</t>
+  </si>
+  <si>
+    <t>2c1aa414051bf5973edb38e2ce1d1185</t>
+  </si>
+  <si>
+    <t>守护希望</t>
+  </si>
+  <si>
+    <t>100547.ts</t>
+  </si>
+  <si>
+    <t>93aa21e8801a18d7edbceeca8c2fb183</t>
+  </si>
+  <si>
+    <t>六年力行</t>
+  </si>
+  <si>
+    <t>100548.ts</t>
+  </si>
+  <si>
+    <t>546dde5b06f0a7d58ada2d0627e90b48</t>
+  </si>
+  <si>
+    <t>刑侦路上的“拼命三郎”</t>
+  </si>
+  <si>
+    <t>100549.ts</t>
+  </si>
+  <si>
+    <t>2073299fc6b2be181128d04edbee8ea4</t>
+  </si>
+  <si>
+    <t>出路</t>
+  </si>
+  <si>
+    <t>100550.ts</t>
+  </si>
+  <si>
+    <t>a0157a45830436475249fd9eb02911ce</t>
+  </si>
+  <si>
+    <t>温馨之家的李伯伯</t>
+  </si>
+  <si>
+    <t>100551.ts</t>
+  </si>
+  <si>
+    <t>1655bf094e9fa9986878df75b3d0b1c0</t>
+  </si>
+  <si>
+    <t>承诺</t>
+  </si>
+  <si>
+    <t>100552.ts</t>
+  </si>
+  <si>
+    <t>ce5aee2c0eb95ea36ce6dacb061acd6c</t>
+  </si>
+  <si>
+    <t>一个人的长征</t>
+  </si>
+  <si>
+    <t>100553.ts</t>
+  </si>
+  <si>
+    <t>667b774e4a38cb3fa978a625557f21f6</t>
+  </si>
+  <si>
+    <t>管段民警</t>
+  </si>
+  <si>
+    <t>100554.ts</t>
+  </si>
+  <si>
+    <t>8e5484401acd7e067ce747069202da4f</t>
+  </si>
+  <si>
+    <t>网络神捕</t>
+  </si>
+  <si>
+    <t>100555.ts</t>
+  </si>
+  <si>
+    <t>1408e22d1a1104df35787a420f6d782f</t>
+  </si>
+  <si>
+    <t>巧妇9妹</t>
+  </si>
+  <si>
+    <t>100556.ts</t>
+  </si>
+  <si>
+    <t>8dbbaa6046fe6d015f64c21d965fbb16</t>
+  </si>
+  <si>
+    <t>基层群众自治制度的探索者 韦焕能</t>
+  </si>
+  <si>
+    <t>100557.ts</t>
+  </si>
+  <si>
+    <t>典型事迹</t>
+  </si>
+  <si>
+    <t>4fad7cc25b17b501779b5a26b778b9b5</t>
+  </si>
+  <si>
+    <t>100558.ts</t>
+  </si>
+  <si>
+    <t>83cd952e7d27d0cac98cf26d911d6c4d</t>
+  </si>
+  <si>
+    <t>余生有我</t>
+  </si>
+  <si>
+    <t>100559.ts</t>
+  </si>
+  <si>
+    <t>810bd10253aa4f6e0904d668507e38f1</t>
+  </si>
+  <si>
+    <t>团结村“团结梦”</t>
+  </si>
+  <si>
+    <t>100560.ts</t>
+  </si>
+  <si>
+    <t>7acb8fc54076d7e39867e8d3822c5143</t>
+  </si>
+  <si>
+    <t>赶考路上</t>
+  </si>
+  <si>
+    <t>100561.ts</t>
+  </si>
+  <si>
+    <t>44e5f1ea56c44bfedd733d20dd91ef09</t>
+  </si>
+  <si>
+    <t>1369生命直通车</t>
+  </si>
+  <si>
+    <t>100562.ts</t>
+  </si>
+  <si>
+    <t>f1d5b6e7f85d767078960eee1f2b0e54</t>
+  </si>
+  <si>
+    <t>100563.ts</t>
+  </si>
+  <si>
+    <t>002daa70eb459669779aa857d9dc1be7</t>
+  </si>
+  <si>
+    <t>等着我</t>
+  </si>
+  <si>
+    <t>100564.ts</t>
+  </si>
+  <si>
+    <t>fe04f0c28448b9d978ff642970970ab6</t>
+  </si>
+  <si>
+    <t>大山深处唱军歌</t>
+  </si>
+  <si>
+    <t>100565.ts</t>
+  </si>
+  <si>
+    <t>4446a30b21bddc7089ef86349369504a</t>
+  </si>
+  <si>
+    <t>永远跟党走</t>
+  </si>
+  <si>
+    <t>100566.ts</t>
+  </si>
+  <si>
+    <t>fb50ff8c0b8c57ee8d966b3c43d77da7</t>
+  </si>
+  <si>
+    <t>覃华海的扶贫路</t>
+  </si>
+  <si>
+    <t>100567.ts</t>
+  </si>
+  <si>
+    <t>3dea5bd84efbf3a22f165bcd3ccfd208</t>
+  </si>
+  <si>
+    <t>第一书记“田爸爸”</t>
+  </si>
+  <si>
+    <t>100568.ts</t>
+  </si>
+  <si>
+    <t>36ce608966d20a06e4a3bbcdb16f81aa</t>
+  </si>
+  <si>
+    <t>大山里的铿锵玫瑰</t>
+  </si>
+  <si>
+    <t>100569.ts</t>
+  </si>
+  <si>
+    <t>65f0ca23e4d57b46b74c75f75938cb8e</t>
+  </si>
+  <si>
+    <t>100570.ts</t>
+  </si>
+  <si>
+    <t>309a4f836beffa4cfb9f7b2dbcff9c33</t>
+  </si>
+  <si>
+    <t>百褶裙</t>
+  </si>
+  <si>
+    <t>100571.ts</t>
+  </si>
+  <si>
+    <t>25e9d0462e5a3c807c8b448dc6c847ac</t>
+  </si>
+  <si>
+    <t>100572.ts</t>
+  </si>
+  <si>
+    <t>b5d7ba80323bdb3536487bbed5d7cad1</t>
+  </si>
+  <si>
+    <t>烂木干长出隆苗香</t>
+  </si>
+  <si>
+    <t>100573.ts</t>
+  </si>
+  <si>
+    <t>324eb33275ab7e9c9876c0d0c856697c</t>
+  </si>
+  <si>
+    <t>长长的思念</t>
+  </si>
+  <si>
+    <t>100574.ts</t>
+  </si>
+  <si>
+    <t>79bef388c43621219eb873020a028980</t>
+  </si>
+  <si>
+    <t>深山绣郎</t>
+  </si>
+  <si>
+    <t>100575.ts</t>
+  </si>
+  <si>
+    <t>8520cc7487fec8cad3256c8488956922</t>
+  </si>
+  <si>
+    <t>芳华无悔献初心</t>
+  </si>
+  <si>
+    <t>100576.ts</t>
+  </si>
+  <si>
+    <t>9939b9d158c43b45963c197fd135d36e</t>
+  </si>
+  <si>
+    <t>重罪案组的女检察官</t>
+  </si>
+  <si>
+    <t>100577.ts</t>
+  </si>
+  <si>
+    <t>f29b69ed20b33bd7e46d88bf3ccc2edc</t>
+  </si>
+  <si>
+    <t>第一书记的驻村日记</t>
+  </si>
+  <si>
+    <t>100578.ts</t>
+  </si>
+  <si>
+    <t>47e9cb946fce9ffc0c9672c50c5f7038</t>
+  </si>
+  <si>
+    <t>白马传情映初心</t>
+  </si>
+  <si>
+    <t>100579.ts</t>
+  </si>
+  <si>
+    <t>40f0b51885afd601d48c7ecdc788de51</t>
+  </si>
+  <si>
+    <t>我为大山立传</t>
+  </si>
+  <si>
+    <t>100580.ts</t>
+  </si>
+  <si>
+    <t>22d1654ab7ee9503cc52063f90480724</t>
+  </si>
+  <si>
+    <t>扶贫号飞行员卢炳成</t>
+  </si>
+  <si>
+    <t>100581.ts</t>
+  </si>
+  <si>
+    <t>4c27a2e62e5bb3b9068fb531b886d5a2</t>
+  </si>
+  <si>
+    <t>100582.ts</t>
+  </si>
+  <si>
+    <t>9b7c4d2d00cc17a72995e0cd20bca330</t>
+  </si>
+  <si>
+    <t>第五空间卫士</t>
+  </si>
+  <si>
+    <t>100583.ts</t>
+  </si>
+  <si>
+    <t>fe32374b04fbf18afc8936f47e2b4b88</t>
+  </si>
+  <si>
+    <t>盐碱田里的致富密码</t>
+  </si>
+  <si>
+    <t>100584.ts</t>
+  </si>
+  <si>
+    <t>c12462dcb0000ea72894065edc69cefb</t>
+  </si>
+  <si>
+    <t>抉择</t>
+  </si>
+  <si>
+    <t>100585.ts</t>
+  </si>
+  <si>
+    <t>3ad7eaa99e554bbfcca15932f898e253</t>
+  </si>
+  <si>
+    <t>初心耀青春</t>
+  </si>
+  <si>
+    <t>100586.ts</t>
+  </si>
+  <si>
+    <t>97c4f2ad130ce2649d5374b6060537be</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,7 +1301,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1464,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="4"/>
@@ -1544,576 +1729,876 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="C37:C47"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C41"/>
+    <mergeCell ref="C42:C71"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
